--- a/results/VRE_resource_summary_reseamed_years.xlsx
+++ b/results/VRE_resource_summary_reseamed_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathan\git\python\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PhD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CABD98-840C-4DDB-B1C8-D6CAA59B9017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E38C9-8BAF-4FBB-8814-BC41754E04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="390" windowWidth="46065" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="43335" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>pot_cap</t>
   </si>
@@ -211,13 +211,19 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -270,15 +276,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AS31" sqref="AS31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z43" sqref="Z42:Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,7 +4650,7 @@
         <v>1402.2755999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
         <v>46</v>
@@ -4770,7 +4776,7 @@
         <v>1246.0026</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -4896,7 +4902,7 @@
         <v>1295.2792999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -5022,7 +5028,7 @@
         <v>1414.4856</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>41</v>
@@ -5148,7 +5154,126 @@
         <v>1494.4383</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP38" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5308,8 +5433,12 @@
         <f t="shared" si="0"/>
         <v>1344.2667305742559</v>
       </c>
+      <c r="AQ39" s="3">
+        <f>AVERAGE(D39:AP39)</f>
+        <v>1321.9633559018187</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>57</v>
       </c>
@@ -5470,326 +5599,701 @@
         <v>22.303374672437258</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3">
+        <f>SUMPRODUCT($C$27:$C$36,D27:D36)/1000</f>
+        <v>582.21755284610492</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ref="E42:AP42" si="2">SUMPRODUCT($C$27:$C$36,E27:E36)/1000</f>
+        <v>613.34493962744193</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="2"/>
+        <v>585.33244876819595</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>619.80857604637697</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="2"/>
+        <v>589.83513006507201</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="2"/>
+        <v>612.39273841254703</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="2"/>
+        <v>594.26022167600399</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="2"/>
+        <v>589.532360760551</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="2"/>
+        <v>615.253251245245</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="2"/>
+        <v>643.94568443365199</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="2"/>
+        <v>629.06328851747912</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="2"/>
+        <v>642.27803593614192</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="2"/>
+        <v>643.15873676687795</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="2"/>
+        <v>590.18664436343897</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="2"/>
+        <v>635.23774938111399</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="2"/>
+        <v>653.39350925407598</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="2"/>
+        <v>625.07789168071497</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="2"/>
+        <v>625.03161103866296</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="2"/>
+        <v>583.56779721526107</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" si="2"/>
+        <v>634.230850272976</v>
+      </c>
+      <c r="X42" s="3">
+        <f t="shared" si="2"/>
+        <v>595.62839049472404</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" si="2"/>
+        <v>613.36097173479993</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="2"/>
+        <v>662.47639034458814</v>
+      </c>
+      <c r="AA42" s="3">
+        <f t="shared" si="2"/>
+        <v>654.40805336126107</v>
+      </c>
+      <c r="AB42" s="3">
+        <f t="shared" si="2"/>
+        <v>659.345810016266</v>
+      </c>
+      <c r="AC42" s="3">
+        <f t="shared" si="2"/>
+        <v>644.32998680426897</v>
+      </c>
+      <c r="AD42" s="3">
+        <f t="shared" si="2"/>
+        <v>666.72214494294394</v>
+      </c>
+      <c r="AE42" s="3">
+        <f t="shared" si="2"/>
+        <v>631.84831169615495</v>
+      </c>
+      <c r="AF42" s="3">
+        <f t="shared" si="2"/>
+        <v>626.96263733785293</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="2"/>
+        <v>628.37318788691402</v>
+      </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="2"/>
+        <v>652.22082494184701</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" si="2"/>
+        <v>632.47252330531398</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f t="shared" si="2"/>
+        <v>617.8699863284329</v>
+      </c>
+      <c r="AK42" s="3">
+        <f t="shared" si="2"/>
+        <v>646.32768614392603</v>
+      </c>
+      <c r="AL42" s="3">
+        <f t="shared" si="2"/>
+        <v>635.95156598466099</v>
+      </c>
+      <c r="AM42" s="3">
+        <f t="shared" si="2"/>
+        <v>636.90895683264603</v>
+      </c>
+      <c r="AN42" s="3">
+        <f t="shared" si="2"/>
+        <v>649.85046682869506</v>
+      </c>
+      <c r="AO42" s="3">
+        <f t="shared" si="2"/>
+        <v>642.54196703053196</v>
+      </c>
+      <c r="AP42" s="3">
+        <f t="shared" si="2"/>
+        <v>693.32462347937496</v>
+      </c>
+      <c r="AQ42" s="3">
+        <f>AVERAGE(D42:AP42)</f>
+        <v>628.15573086674715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2">
+        <f>D42-AVERAGE($D$42:$AP$42)</f>
+        <v>-45.938178020642226</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ref="E43:AP43" si="3">E42-AVERAGE($D$42:$AP$42)</f>
+        <v>-14.810791239305217</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="3"/>
+        <v>-42.823282098551203</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>-8.3471548203701786</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="3"/>
+        <v>-38.320600801675141</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>-15.762992454200116</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="3"/>
+        <v>-33.895509190743155</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="3"/>
+        <v>-38.623370106196148</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="3"/>
+        <v>-12.902479621502152</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="3"/>
+        <v>15.789953566904842</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90755765073197381</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="3"/>
+        <v>14.12230506939477</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="3"/>
+        <v>15.003005900130802</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="3"/>
+        <v>-37.969086503308176</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0820185143668368</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="3"/>
+        <v>25.237778387328831</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.077839186032179</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.12411982808419</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="3"/>
+        <v>-44.587933651486082</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0751194062288505</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" si="3"/>
+        <v>-32.527340372023104</v>
+      </c>
+      <c r="Y43" s="2">
+        <f t="shared" si="3"/>
+        <v>-14.794759131947217</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="3"/>
+        <v>34.320659477840991</v>
+      </c>
+      <c r="AA43" s="2">
+        <f t="shared" si="3"/>
+        <v>26.252322494513919</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="3"/>
+        <v>31.190079149518851</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="3"/>
+        <v>16.174255937521821</v>
+      </c>
+      <c r="AD43" s="2">
+        <f t="shared" si="3"/>
+        <v>38.566414076196793</v>
+      </c>
+      <c r="AE43" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6925808294078024</v>
+      </c>
+      <c r="AF43" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.1930935288942237</v>
+      </c>
+      <c r="AG43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21745702016687574</v>
+      </c>
+      <c r="AH43" s="2">
+        <f t="shared" si="3"/>
+        <v>24.065094075099864</v>
+      </c>
+      <c r="AI43" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3167924385668357</v>
+      </c>
+      <c r="AJ43" s="2">
+        <f t="shared" si="3"/>
+        <v>-10.285744538314248</v>
+      </c>
+      <c r="AK43" s="2">
+        <f t="shared" si="3"/>
+        <v>18.171955277178881</v>
+      </c>
+      <c r="AL43" s="2">
+        <f t="shared" si="3"/>
+        <v>7.795835117913839</v>
+      </c>
+      <c r="AM43" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7532259658988778</v>
+      </c>
+      <c r="AN43" s="2">
+        <f t="shared" si="3"/>
+        <v>21.694735961947913</v>
+      </c>
+      <c r="AO43" s="2">
+        <f t="shared" si="3"/>
+        <v>14.386236163784815</v>
+      </c>
+      <c r="AP43" s="2">
+        <f t="shared" si="3"/>
+        <v>65.168892612627815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D45" s="3">
         <f>SUMPRODUCT($C$2:$C$36,D2:D36)/1000</f>
         <v>1918.3128946018951</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" ref="E42:AP42" si="2">SUMPRODUCT($C$2:$C$36,E2:E36)/1000</f>
+      <c r="E45" s="3">
+        <f t="shared" ref="E45:AP45" si="4">SUMPRODUCT($C$2:$C$36,E2:E36)/1000</f>
         <v>1878.368955802033</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="2"/>
+      <c r="F45" s="3">
+        <f t="shared" si="4"/>
         <v>1930.0038889327398</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" si="2"/>
+      <c r="G45" s="3">
+        <f t="shared" si="4"/>
         <v>1975.1772042279699</v>
       </c>
-      <c r="H42" s="3">
-        <f t="shared" si="2"/>
+      <c r="H45" s="3">
+        <f t="shared" si="4"/>
         <v>1870.5554819499998</v>
       </c>
-      <c r="I42" s="3">
-        <f t="shared" si="2"/>
+      <c r="I45" s="3">
+        <f t="shared" si="4"/>
         <v>1950.1355189026831</v>
       </c>
-      <c r="J42" s="3">
-        <f t="shared" si="2"/>
+      <c r="J45" s="3">
+        <f t="shared" si="4"/>
         <v>1925.7777383951657</v>
       </c>
-      <c r="K42" s="3">
-        <f t="shared" si="2"/>
+      <c r="K45" s="3">
+        <f t="shared" si="4"/>
         <v>1914.4495313914722</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" si="2"/>
+      <c r="L45" s="3">
+        <f t="shared" si="4"/>
         <v>2003.511720833777</v>
       </c>
-      <c r="M42" s="3">
-        <f t="shared" si="2"/>
+      <c r="M45" s="3">
+        <f t="shared" si="4"/>
         <v>1979.0750105557252</v>
       </c>
-      <c r="N42" s="3">
-        <f t="shared" si="2"/>
+      <c r="N45" s="3">
+        <f t="shared" si="4"/>
         <v>1958.2911365456559</v>
       </c>
-      <c r="O42" s="3">
-        <f t="shared" si="2"/>
+      <c r="O45" s="3">
+        <f t="shared" si="4"/>
         <v>1973.8747091507678</v>
       </c>
-      <c r="P42" s="3">
-        <f t="shared" si="2"/>
+      <c r="P45" s="3">
+        <f t="shared" si="4"/>
         <v>1977.0394604061023</v>
       </c>
-      <c r="Q42" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q45" s="3">
+        <f t="shared" si="4"/>
         <v>1954.9863592360271</v>
       </c>
-      <c r="R42" s="3">
-        <f t="shared" si="2"/>
+      <c r="R45" s="3">
+        <f t="shared" si="4"/>
         <v>1997.3353061435325</v>
       </c>
-      <c r="S42" s="3">
-        <f t="shared" si="2"/>
+      <c r="S45" s="3">
+        <f t="shared" si="4"/>
         <v>1900.5561388935112</v>
       </c>
-      <c r="T42" s="3">
-        <f t="shared" si="2"/>
+      <c r="T45" s="3">
+        <f t="shared" si="4"/>
         <v>1934.264816531585</v>
       </c>
-      <c r="U42" s="3">
-        <f t="shared" si="2"/>
+      <c r="U45" s="3">
+        <f t="shared" si="4"/>
         <v>1922.0763686488792</v>
       </c>
-      <c r="V42" s="3">
-        <f t="shared" si="2"/>
+      <c r="V45" s="3">
+        <f t="shared" si="4"/>
         <v>1933.5287289573425</v>
       </c>
-      <c r="W42" s="3">
-        <f t="shared" si="2"/>
+      <c r="W45" s="3">
+        <f t="shared" si="4"/>
         <v>1978.2178432603757</v>
       </c>
-      <c r="X42" s="3">
-        <f t="shared" si="2"/>
+      <c r="X45" s="3">
+        <f t="shared" si="4"/>
         <v>1896.8987438016984</v>
       </c>
-      <c r="Y42" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y45" s="3">
+        <f t="shared" si="4"/>
         <v>1951.0268532606351</v>
       </c>
-      <c r="Z42" s="3">
-        <f t="shared" si="2"/>
+      <c r="Z45" s="3">
+        <f t="shared" si="4"/>
         <v>1903.8439966437968</v>
       </c>
-      <c r="AA42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AA45" s="3">
+        <f t="shared" si="4"/>
         <v>1917.410592936445</v>
       </c>
-      <c r="AB42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AB45" s="3">
+        <f t="shared" si="4"/>
         <v>1994.4865531255462</v>
       </c>
-      <c r="AC42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AC45" s="3">
+        <f t="shared" si="4"/>
         <v>1939.7506092469714</v>
       </c>
-      <c r="AD42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AD45" s="3">
+        <f t="shared" si="4"/>
         <v>2001.4843517879469</v>
       </c>
-      <c r="AE42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AE45" s="3">
+        <f t="shared" si="4"/>
         <v>1973.01017614391</v>
       </c>
-      <c r="AF42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AF45" s="3">
+        <f t="shared" si="4"/>
         <v>1917.9832008375838</v>
       </c>
-      <c r="AG42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AG45" s="3">
+        <f t="shared" si="4"/>
         <v>1942.802754422461</v>
       </c>
-      <c r="AH42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AH45" s="3">
+        <f t="shared" si="4"/>
         <v>1955.4545225548545</v>
       </c>
-      <c r="AI42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AI45" s="3">
+        <f t="shared" si="4"/>
         <v>1991.9484729947028</v>
       </c>
-      <c r="AJ42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AJ45" s="3">
+        <f t="shared" si="4"/>
         <v>1940.7413635262512</v>
       </c>
-      <c r="AK42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AK45" s="3">
+        <f t="shared" si="4"/>
         <v>1972.8518226809867</v>
       </c>
-      <c r="AL42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AL45" s="3">
+        <f t="shared" si="4"/>
         <v>1978.538302578602</v>
       </c>
-      <c r="AM42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AM45" s="3">
+        <f t="shared" si="4"/>
         <v>1939.062116753106</v>
       </c>
-      <c r="AN42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AN45" s="3">
+        <f t="shared" si="4"/>
         <v>1971.2627751529501</v>
       </c>
-      <c r="AO42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AO45" s="3">
+        <f t="shared" si="4"/>
         <v>1952.957008104735</v>
       </c>
-      <c r="AP42" s="3">
-        <f t="shared" si="2"/>
+      <c r="AP45" s="3">
+        <f t="shared" si="4"/>
         <v>2037.5913540536305</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="2">
-        <f>D42-AVERAGE($D$42:$AP$42)</f>
+      <c r="D46" s="2">
+        <f>D45-AVERAGE($D$45:$AP$45)</f>
         <v>-31.806192166669916</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" ref="E43:AP43" si="3">E42-AVERAGE($D$42:$AP$42)</f>
+      <c r="E46" s="2">
+        <f t="shared" ref="E46:AP46" si="5">E45-AVERAGE($D$45:$AP$45)</f>
         <v>-71.75013096653197</v>
       </c>
-      <c r="F43" s="2">
-        <f t="shared" si="3"/>
+      <c r="F46" s="2">
+        <f t="shared" si="5"/>
         <v>-20.115197835825256</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="3"/>
+      <c r="G46" s="2">
+        <f t="shared" si="5"/>
         <v>25.058117459404912</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="3"/>
+      <c r="H46" s="2">
+        <f t="shared" si="5"/>
         <v>-79.563604818565182</v>
       </c>
-      <c r="I43" s="2">
-        <f t="shared" si="3"/>
+      <c r="I46" s="2">
+        <f t="shared" si="5"/>
         <v>1.6432134118076647E-2</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="3"/>
+      <c r="J46" s="2">
+        <f t="shared" si="5"/>
         <v>-24.341348373399342</v>
       </c>
-      <c r="K43" s="2">
-        <f t="shared" si="3"/>
+      <c r="K46" s="2">
+        <f t="shared" si="5"/>
         <v>-35.66955537709282</v>
       </c>
-      <c r="L43" s="2">
-        <f t="shared" si="3"/>
+      <c r="L46" s="2">
+        <f t="shared" si="5"/>
         <v>53.392634065211951</v>
       </c>
-      <c r="M43" s="2">
-        <f t="shared" si="3"/>
+      <c r="M46" s="2">
+        <f t="shared" si="5"/>
         <v>28.955923787160145</v>
       </c>
-      <c r="N43" s="2">
-        <f t="shared" si="3"/>
+      <c r="N46" s="2">
+        <f t="shared" si="5"/>
         <v>8.1720497770909333</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="3"/>
+      <c r="O46" s="2">
+        <f t="shared" si="5"/>
         <v>23.755622382202773</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="3"/>
+      <c r="P46" s="2">
+        <f t="shared" si="5"/>
         <v>26.920373637537296</v>
       </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q46" s="2">
+        <f t="shared" si="5"/>
         <v>4.867272467462044</v>
       </c>
-      <c r="R43" s="2">
-        <f t="shared" si="3"/>
+      <c r="R46" s="2">
+        <f t="shared" si="5"/>
         <v>47.216219374967523</v>
       </c>
-      <c r="S43" s="2">
-        <f t="shared" si="3"/>
+      <c r="S46" s="2">
+        <f t="shared" si="5"/>
         <v>-49.562947875053851</v>
       </c>
-      <c r="T43" s="2">
-        <f t="shared" si="3"/>
+      <c r="T46" s="2">
+        <f t="shared" si="5"/>
         <v>-15.854270236980028</v>
       </c>
-      <c r="U43" s="2">
-        <f t="shared" si="3"/>
+      <c r="U46" s="2">
+        <f t="shared" si="5"/>
         <v>-28.042718119685787</v>
       </c>
-      <c r="V43" s="2">
-        <f t="shared" si="3"/>
+      <c r="V46" s="2">
+        <f t="shared" si="5"/>
         <v>-16.590357811222475</v>
       </c>
-      <c r="W43" s="2">
-        <f t="shared" si="3"/>
+      <c r="W46" s="2">
+        <f t="shared" si="5"/>
         <v>28.098756491810718</v>
       </c>
-      <c r="X43" s="2">
-        <f t="shared" si="3"/>
+      <c r="X46" s="2">
+        <f t="shared" si="5"/>
         <v>-53.22034296686661</v>
       </c>
-      <c r="Y43" s="2">
-        <f t="shared" si="3"/>
+      <c r="Y46" s="2">
+        <f t="shared" si="5"/>
         <v>0.90776649207009541</v>
       </c>
-      <c r="Z43" s="2">
-        <f t="shared" si="3"/>
+      <c r="Z46" s="2">
+        <f t="shared" si="5"/>
         <v>-46.275090124768212</v>
       </c>
-      <c r="AA43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AA46" s="2">
+        <f t="shared" si="5"/>
         <v>-32.708493832119984</v>
       </c>
-      <c r="AB43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AB46" s="2">
+        <f t="shared" si="5"/>
         <v>44.36746635698114</v>
       </c>
-      <c r="AC43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AC46" s="2">
+        <f t="shared" si="5"/>
         <v>-10.368477521593604</v>
       </c>
-      <c r="AD43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AD46" s="2">
+        <f t="shared" si="5"/>
         <v>51.365265019381923</v>
       </c>
-      <c r="AE43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AE46" s="2">
+        <f t="shared" si="5"/>
         <v>22.891089375345018</v>
       </c>
-      <c r="AF43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AF46" s="2">
+        <f t="shared" si="5"/>
         <v>-32.135885930981203</v>
       </c>
-      <c r="AG43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AG46" s="2">
+        <f t="shared" si="5"/>
         <v>-7.3163323461039909</v>
       </c>
-      <c r="AH43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AH46" s="2">
+        <f t="shared" si="5"/>
         <v>5.3354357862895085</v>
       </c>
-      <c r="AI43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AI46" s="2">
+        <f t="shared" si="5"/>
         <v>41.829386226137785</v>
       </c>
-      <c r="AJ43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AJ46" s="2">
+        <f t="shared" si="5"/>
         <v>-9.3777232423137775</v>
       </c>
-      <c r="AK43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AK46" s="2">
+        <f t="shared" si="5"/>
         <v>22.732735912421731</v>
       </c>
-      <c r="AL43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AL46" s="2">
+        <f t="shared" si="5"/>
         <v>28.419215810037031</v>
       </c>
-      <c r="AM43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AM46" s="2">
+        <f t="shared" si="5"/>
         <v>-11.056970015459001</v>
       </c>
-      <c r="AN43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AN46" s="2">
+        <f t="shared" si="5"/>
         <v>21.143688384385086</v>
       </c>
-      <c r="AO43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AO46" s="2">
+        <f t="shared" si="5"/>
         <v>2.837921336169984</v>
       </c>
-      <c r="AP43" s="2">
-        <f t="shared" si="3"/>
+      <c r="AP46" s="2">
+        <f t="shared" si="5"/>
         <v>87.472267285065527</v>
+      </c>
+    </row>
+    <row r="49" spans="17:35" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5803,7 +6307,7 @@
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:AP39">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5814,8 +6318,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:AP40">
+  <conditionalFormatting sqref="D40:AP41 D43:AP43">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="-15"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="15"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:AP45">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:AP46">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="-15"/>
         <cfvo type="num" val="0"/>
@@ -5827,7 +6355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AP42">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5838,18 +6366,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:AP43">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-15"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="15"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/VRE_resource_summary_reseamed_years.xlsx
+++ b/results/VRE_resource_summary_reseamed_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PhD\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathan\git\PhD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E38C9-8BAF-4FBB-8814-BC41754E04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D383208-C24F-49BC-BFBB-BD305D93928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="43335" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="28800" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -287,6 +296,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,15 +601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ49"/>
+  <dimension ref="A1:AQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z43" sqref="Z42:Z43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="8.85546875" customWidth="1"/>
+    <col min="4" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="8" customWidth="1"/>
+    <col min="19" max="43" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -761,22 +779,22 @@
       <c r="L2" s="2">
         <v>2477.4358999999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="6">
         <v>2539.0758000000001</v>
       </c>
       <c r="N2" s="2">
         <v>2551.3335999999999</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="6">
         <v>2631.751600000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="6">
         <v>2669.9843000000001</v>
       </c>
       <c r="Q2" s="2">
         <v>2979.9403000000002</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="6">
         <v>3000.4654</v>
       </c>
       <c r="S2" s="2">
@@ -889,22 +907,22 @@
       <c r="L3" s="2">
         <v>3232.4938000000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="6">
         <v>3333.0369000000001</v>
       </c>
       <c r="N3" s="2">
         <v>3307.0275000000001</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="6">
         <v>3325.1858000000002</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="6">
         <v>3369.7865000000002</v>
       </c>
       <c r="Q3" s="2">
         <v>3708.3146000000002</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="6">
         <v>3707.3319000000001</v>
       </c>
       <c r="S3" s="2">
@@ -1017,22 +1035,22 @@
       <c r="L4" s="2">
         <v>4414.4665999999997</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="6">
         <v>4480.5746999999992</v>
       </c>
       <c r="N4" s="2">
         <v>4293.3865000000014</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="6">
         <v>4295.2443999999996</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="6">
         <v>4272.6841999999997</v>
       </c>
       <c r="Q4" s="2">
         <v>4068.5513999999998</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="6">
         <v>4261.3806000000004</v>
       </c>
       <c r="S4" s="2">
@@ -1143,22 +1161,22 @@
       <c r="L5" s="2">
         <v>4686.5524999999998</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="6">
         <v>4400.0874999999996</v>
       </c>
       <c r="N5" s="2">
         <v>4278.0309999999999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="6">
         <v>4307.660100000001</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="6">
         <v>4340.9784999999993</v>
       </c>
       <c r="Q5" s="2">
         <v>4361.7376000000004</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="6">
         <v>4466.6179000000002</v>
       </c>
       <c r="S5" s="2">
@@ -1269,22 +1287,22 @@
       <c r="L6" s="2">
         <v>4509.2271000000001</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="6">
         <v>4441.7396999999992</v>
       </c>
       <c r="N6" s="2">
         <v>4003.1046999999999</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="6">
         <v>4159.5216</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="6">
         <v>4215.1814000000004</v>
       </c>
       <c r="Q6" s="2">
         <v>4015.2321999999999</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="6">
         <v>4228.4530999999997</v>
       </c>
       <c r="S6" s="2">
@@ -1395,22 +1413,22 @@
       <c r="L7" s="2">
         <v>4678.8671999999997</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="6">
         <v>4346.9138999999996</v>
       </c>
       <c r="N7" s="2">
         <v>4145.0465999999997</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="6">
         <v>4338.4354999999996</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="6">
         <v>4333.6157000000003</v>
       </c>
       <c r="Q7" s="2">
         <v>4069.0012000000002</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="6">
         <v>4399.7649000000001</v>
       </c>
       <c r="S7" s="2">
@@ -1521,22 +1539,22 @@
       <c r="L8" s="2">
         <v>4503.2407000000003</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="6">
         <v>4472.2103999999999</v>
       </c>
       <c r="N8" s="2">
         <v>4398.4421000000002</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="6">
         <v>4439.6424999999999</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="6">
         <v>4458.6282000000001</v>
       </c>
       <c r="Q8" s="2">
         <v>4536.6823999999997</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="6">
         <v>4629.4804000000004</v>
       </c>
       <c r="S8" s="2">
@@ -1647,22 +1665,22 @@
       <c r="L9" s="2">
         <v>4243.4052000000001</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="6">
         <v>4293.8458000000001</v>
       </c>
       <c r="N9" s="2">
         <v>4186.0601999999999</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="6">
         <v>4173.4354000000003</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="6">
         <v>4230.6621999999998</v>
       </c>
       <c r="Q9" s="2">
         <v>4454.317500000001</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="6">
         <v>4452.5595000000003</v>
       </c>
       <c r="S9" s="2">
@@ -1775,22 +1793,22 @@
       <c r="L10" s="2">
         <v>5030.8897000000006</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="6">
         <v>5080.0687999999991</v>
       </c>
       <c r="N10" s="2">
         <v>4920.4244999999992</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="6">
         <v>4934.1450000000004</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="6">
         <v>4937.2403999999997</v>
       </c>
       <c r="Q10" s="2">
         <v>4780.9471000000003</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="6">
         <v>4910.0574999999999</v>
       </c>
       <c r="S10" s="2">
@@ -1901,22 +1919,22 @@
       <c r="L11" s="2">
         <v>5165.2406999999994</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="6">
         <v>4919.0605000000014</v>
       </c>
       <c r="N11" s="2">
         <v>4901.6553999999996</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="6">
         <v>4902.5160999999998</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="6">
         <v>4948.7955000000002</v>
       </c>
       <c r="Q11" s="2">
         <v>5156.0887000000002</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="6">
         <v>5159.6372000000001</v>
       </c>
       <c r="S11" s="2">
@@ -2027,22 +2045,22 @@
       <c r="L12" s="2">
         <v>5091.1062999999986</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="6">
         <v>4994.9495000000006</v>
       </c>
       <c r="N12" s="2">
         <v>4678.5694000000003</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="6">
         <v>4791.1960000000008</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="6">
         <v>4863.8454000000002</v>
       </c>
       <c r="Q12" s="2">
         <v>4690.8189000000002</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="6">
         <v>4784.5110000000004</v>
       </c>
       <c r="S12" s="2">
@@ -2153,22 +2171,22 @@
       <c r="L13" s="2">
         <v>5371.7272999999996</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="6">
         <v>5146.2744000000002</v>
       </c>
       <c r="N13" s="2">
         <v>4989.8558999999996</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="6">
         <v>4986.1604000000007</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="6">
         <v>5001.0716000000002</v>
       </c>
       <c r="Q13" s="2">
         <v>4904.2242999999999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="6">
         <v>5132.8482999999997</v>
       </c>
       <c r="S13" s="2">
@@ -2279,22 +2297,22 @@
       <c r="L14" s="2">
         <v>5231.4432999999999</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="6">
         <v>5011.488699999999</v>
       </c>
       <c r="N14" s="2">
         <v>4972.6937999999991</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="6">
         <v>5039.8980000000001</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="6">
         <v>5008.1767</v>
       </c>
       <c r="Q14" s="2">
         <v>5152.7381999999998</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="6">
         <v>5100.6722</v>
       </c>
       <c r="S14" s="2">
@@ -2405,22 +2423,22 @@
       <c r="L15" s="2">
         <v>4860.1653999999999</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="6">
         <v>4808.2607000000007</v>
       </c>
       <c r="N15" s="2">
         <v>4718.2546000000002</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="6">
         <v>4747.2376000000004</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="6">
         <v>4771.4529000000002</v>
       </c>
       <c r="Q15" s="2">
         <v>4912.3046000000004</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="6">
         <v>4905.4880999999996</v>
       </c>
       <c r="S15" s="2">
@@ -2533,22 +2551,22 @@
       <c r="L16" s="2">
         <v>3593.8651</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="6">
         <v>3756.8910000000001</v>
       </c>
       <c r="N16" s="2">
         <v>3561.4693000000002</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="6">
         <v>3604.4969000000001</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="6">
         <v>3520.5101</v>
       </c>
       <c r="Q16" s="2">
         <v>3371.6133</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="6">
         <v>3538.5180999999998</v>
       </c>
       <c r="S16" s="2">
@@ -2659,22 +2677,22 @@
       <c r="L17" s="2">
         <v>3602.7642000000001</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="6">
         <v>3401.8602999999998</v>
       </c>
       <c r="N17" s="2">
         <v>3300.5074</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="6">
         <v>3243.9169999999999</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="6">
         <v>3326.5065</v>
       </c>
       <c r="Q17" s="2">
         <v>2853.9171999999999</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="6">
         <v>3296.282999999999</v>
       </c>
       <c r="S17" s="2">
@@ -2785,22 +2803,22 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="6">
         <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="6">
         <v>0</v>
       </c>
       <c r="S18" s="2">
@@ -2911,22 +2929,22 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="6">
         <v>0</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="6">
         <v>0</v>
       </c>
       <c r="S19" s="2">
@@ -3039,22 +3057,22 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="6">
         <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="6">
         <v>0</v>
       </c>
       <c r="S20" s="2">
@@ -3167,22 +3185,22 @@
       <c r="L21" s="2">
         <v>5510.797700000001</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="6">
         <v>5155.9533000000001</v>
       </c>
       <c r="N21" s="2">
         <v>5236.8453999999992</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="6">
         <v>5059.3362999999999</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="6">
         <v>5123.4078</v>
       </c>
       <c r="Q21" s="2">
         <v>5127.9655000000002</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="6">
         <v>5247.7456000000002</v>
       </c>
       <c r="S21" s="2">
@@ -3293,22 +3311,22 @@
       <c r="L22" s="2">
         <v>5461.7541000000001</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="6">
         <v>5165.3125</v>
       </c>
       <c r="N22" s="2">
         <v>4915.6602000000003</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="6">
         <v>5160.4214999999986</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="6">
         <v>5067.9215000000004</v>
       </c>
       <c r="Q22" s="2">
         <v>4814.8724999999986</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="6">
         <v>5174.2646999999997</v>
       </c>
       <c r="S22" s="2">
@@ -3421,22 +3439,22 @@
       <c r="L23" s="2">
         <v>5627.3780999999999</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="6">
         <v>5352.8638000000001</v>
       </c>
       <c r="N23" s="2">
         <v>5445.4341000000004</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="6">
         <v>5370.585399999999</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="6">
         <v>5405.9211999999998</v>
       </c>
       <c r="Q23" s="2">
         <v>5648.6307999999999</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="6">
         <v>5572.8410000000003</v>
       </c>
       <c r="S23" s="2">
@@ -3547,22 +3565,22 @@
       <c r="L24" s="2">
         <v>4996.1071000000002</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="6">
         <v>5115.1203999999998</v>
       </c>
       <c r="N24" s="2">
         <v>4681.7022999999999</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="6">
         <v>4883.8752999999997</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="6">
         <v>4911.9264999999996</v>
       </c>
       <c r="Q24" s="2">
         <v>4659.6715000000004</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="6">
         <v>4676.3160000000007</v>
       </c>
       <c r="S24" s="2">
@@ -3673,22 +3691,22 @@
       <c r="L25" s="2">
         <v>5679.5779000000002</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="6">
         <v>5505.3851000000004</v>
       </c>
       <c r="N25" s="2">
         <v>5395.3887000000004</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="6">
         <v>5322.0492999999997</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="6">
         <v>5312.1721999999991</v>
       </c>
       <c r="Q25" s="2">
         <v>5283.8462</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="6">
         <v>5446.9274999999998</v>
       </c>
       <c r="S25" s="2">
@@ -3799,22 +3817,22 @@
       <c r="L26" s="2">
         <v>5736.7195000000002</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="6">
         <v>5408.5474999999997</v>
       </c>
       <c r="N26" s="2">
         <v>5495.5303999999987</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="6">
         <v>5466.9133000000002</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="6">
         <v>5464.2319000000007</v>
       </c>
       <c r="Q26" s="2">
         <v>5660.3360000000002</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="6">
         <v>5526.1203999999998</v>
       </c>
       <c r="S26" s="2">
@@ -3927,22 +3945,22 @@
       <c r="L27" s="2">
         <v>940.50789999999995</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="6">
         <v>988.2152000000001</v>
       </c>
       <c r="N27" s="2">
         <v>988.03070000000002</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="6">
         <v>969.9556</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="6">
         <v>926.05460000000005</v>
       </c>
       <c r="Q27" s="2">
         <v>976.76250000000005</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="6">
         <v>998.75819999999999</v>
       </c>
       <c r="S27" s="2">
@@ -4053,22 +4071,22 @@
       <c r="L28" s="2">
         <v>1185.1569999999999</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="6">
         <v>1237.1904</v>
       </c>
       <c r="N28" s="2">
         <v>1094.6335999999999</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="6">
         <v>1231.4356</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="6">
         <v>1231.0431000000001</v>
       </c>
       <c r="Q28" s="2">
         <v>1165.1271999999999</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="6">
         <v>1222.3339000000001</v>
       </c>
       <c r="S28" s="2">
@@ -4179,22 +4197,22 @@
       <c r="L29" s="2">
         <v>1021.0335</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="6">
         <v>1100.2104999999999</v>
       </c>
       <c r="N29" s="2">
         <v>987.03830000000005</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="6">
         <v>1038.4981</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="6">
         <v>986.76950000000011</v>
       </c>
       <c r="Q29" s="2">
         <v>1033.0963999999999</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="6">
         <v>1059.5214000000001</v>
       </c>
       <c r="S29" s="2">
@@ -4305,22 +4323,22 @@
       <c r="L30" s="2">
         <v>1194.9069999999999</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="6">
         <v>1227.5273</v>
       </c>
       <c r="N30" s="2">
         <v>1225.8527999999999</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="6">
         <v>1253.0153</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="6">
         <v>1241.4152999999999</v>
       </c>
       <c r="Q30" s="2">
         <v>1110.2744</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="6">
         <v>1258.3818000000001</v>
       </c>
       <c r="S30" s="2">
@@ -4431,22 +4449,22 @@
       <c r="L31" s="2">
         <v>1194.0431000000001</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="6">
         <v>1227.9861000000001</v>
       </c>
       <c r="N31" s="2">
         <v>1236.7674999999999</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="6">
         <v>1249.4413999999999</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="6">
         <v>1245.8408999999999</v>
       </c>
       <c r="Q31" s="2">
         <v>1117.7299</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="6">
         <v>1257.4684</v>
       </c>
       <c r="S31" s="2">
@@ -4559,22 +4577,22 @@
       <c r="L32" s="2">
         <v>1313.9401</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="6">
         <v>1360.3045</v>
       </c>
       <c r="N32" s="2">
         <v>1245.3809000000001</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="6">
         <v>1338.944</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="6">
         <v>1366.1468</v>
       </c>
       <c r="Q32" s="2">
         <v>1228.7406000000001</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="6">
         <v>1338.5744</v>
       </c>
       <c r="S32" s="2">
@@ -4685,22 +4703,22 @@
       <c r="L33" s="2">
         <v>1208.1545000000001</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="6">
         <v>1285.2270000000001</v>
       </c>
       <c r="N33" s="2">
         <v>1279.3749</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="6">
         <v>1330.5636999999999</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="6">
         <v>1291.6300000000001</v>
       </c>
       <c r="Q33" s="2">
         <v>1284.7309</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="6">
         <v>1295.6587</v>
       </c>
       <c r="S33" s="2">
@@ -4811,22 +4829,22 @@
       <c r="L34" s="2">
         <v>1256.4777999999999</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="6">
         <v>1284.7085999999999</v>
       </c>
       <c r="N34" s="2">
         <v>1181.0703000000001</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="6">
         <v>1268.5054</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="6">
         <v>1271.364</v>
       </c>
       <c r="Q34" s="2">
         <v>1225.0539000000001</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="6">
         <v>1240.2063000000001</v>
       </c>
       <c r="S34" s="2">
@@ -4937,22 +4955,22 @@
       <c r="L35" s="2">
         <v>1259.4487999999999</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="6">
         <v>1301.7076999999999</v>
       </c>
       <c r="N35" s="2">
         <v>1272.1146000000001</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="6">
         <v>1309.2835</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="6">
         <v>1306.9518</v>
       </c>
       <c r="Q35" s="2">
         <v>1171.5864999999999</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="6">
         <v>1303.4526000000001</v>
       </c>
       <c r="S35" s="2">
@@ -5063,22 +5081,22 @@
       <c r="L36" s="2">
         <v>1305.5211999999999</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="6">
         <v>1385.6477</v>
       </c>
       <c r="N36" s="2">
         <v>1372.163</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="6">
         <v>1369.5632000000001</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="6">
         <v>1383.1375</v>
       </c>
       <c r="Q36" s="2">
         <v>1280.7765999999999</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="6">
         <v>1336.1328000000001</v>
       </c>
       <c r="S36" s="2">
@@ -5313,7 +5331,7 @@
         <f t="shared" si="0"/>
         <v>1388.2584695885321</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="7">
         <f t="shared" si="0"/>
         <v>1335.1293261220731</v>
       </c>
@@ -5321,11 +5339,11 @@
         <f t="shared" si="0"/>
         <v>1329.2278480281768</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="7">
         <f t="shared" si="0"/>
         <v>1331.596673214626</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="7">
         <f t="shared" si="0"/>
         <v>1333.8807236392242</v>
       </c>
@@ -5333,7 +5351,7 @@
         <f t="shared" si="0"/>
         <v>1364.7997148725879</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="7">
         <f t="shared" si="0"/>
         <v>1362.0975567624189</v>
       </c>
@@ -5478,7 +5496,7 @@
         <f t="shared" si="1"/>
         <v>66.295113686713421</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="6">
         <f t="shared" si="1"/>
         <v>13.165970220254394</v>
       </c>
@@ -5486,11 +5504,11 @@
         <f t="shared" si="1"/>
         <v>7.2644921263581637</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="6">
         <f t="shared" si="1"/>
         <v>9.6333173128073213</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="6">
         <f t="shared" si="1"/>
         <v>11.917367737405584</v>
       </c>
@@ -5498,7 +5516,7 @@
         <f t="shared" si="1"/>
         <v>42.836358970769197</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="6">
         <f t="shared" si="1"/>
         <v>40.134200860600231</v>
       </c>
@@ -5609,12 +5627,12 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="6"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="R41" s="6"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -5680,7 +5698,7 @@
         <f t="shared" si="2"/>
         <v>615.253251245245</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="7">
         <f t="shared" si="2"/>
         <v>643.94568443365199</v>
       </c>
@@ -5688,11 +5706,11 @@
         <f t="shared" si="2"/>
         <v>629.06328851747912</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="7">
         <f t="shared" si="2"/>
         <v>642.27803593614192</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="7">
         <f t="shared" si="2"/>
         <v>643.15873676687795</v>
       </c>
@@ -5700,7 +5718,7 @@
         <f t="shared" si="2"/>
         <v>590.18664436343897</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="7">
         <f t="shared" si="2"/>
         <v>635.23774938111399</v>
       </c>
@@ -5845,7 +5863,7 @@
         <f t="shared" si="3"/>
         <v>-12.902479621502152</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="6">
         <f t="shared" si="3"/>
         <v>15.789953566904842</v>
       </c>
@@ -5853,11 +5871,11 @@
         <f t="shared" si="3"/>
         <v>0.90755765073197381</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="6">
         <f t="shared" si="3"/>
         <v>14.12230506939477</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="6">
         <f t="shared" si="3"/>
         <v>15.003005900130802</v>
       </c>
@@ -5865,7 +5883,7 @@
         <f t="shared" si="3"/>
         <v>-37.969086503308176</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="6">
         <f t="shared" si="3"/>
         <v>7.0820185143668368</v>
       </c>
@@ -6006,7 +6024,7 @@
         <f t="shared" si="4"/>
         <v>2003.511720833777</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="7">
         <f t="shared" si="4"/>
         <v>1979.0750105557252</v>
       </c>
@@ -6014,11 +6032,11 @@
         <f t="shared" si="4"/>
         <v>1958.2911365456559</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="7">
         <f t="shared" si="4"/>
         <v>1973.8747091507678</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="7">
         <f t="shared" si="4"/>
         <v>1977.0394604061023</v>
       </c>
@@ -6026,7 +6044,7 @@
         <f t="shared" si="4"/>
         <v>1954.9863592360271</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="7">
         <f t="shared" si="4"/>
         <v>1997.3353061435325</v>
       </c>
@@ -6167,7 +6185,7 @@
         <f t="shared" si="5"/>
         <v>53.392634065211951</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="6">
         <f t="shared" si="5"/>
         <v>28.955923787160145</v>
       </c>
@@ -6175,11 +6193,11 @@
         <f t="shared" si="5"/>
         <v>8.1720497770909333</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="6">
         <f t="shared" si="5"/>
         <v>23.755622382202773</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="6">
         <f t="shared" si="5"/>
         <v>26.920373637537296</v>
       </c>
@@ -6187,7 +6205,7 @@
         <f t="shared" si="5"/>
         <v>4.867272467462044</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="6">
         <f t="shared" si="5"/>
         <v>47.216219374967523</v>
       </c>
@@ -6288,12 +6306,328 @@
         <v>87.472267285065527</v>
       </c>
     </row>
-    <row r="49" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:42" x14ac:dyDescent="0.25">
       <c r="Q49" t="s">
         <v>59</v>
       </c>
       <c r="AI49" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <f t="shared" ref="D50:L50" si="6">D40-$M$40</f>
+        <v>0.96601563371700649</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="6"/>
+        <v>-70.105309947481828</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="6"/>
+        <v>9.5421140424712121</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="6"/>
+        <v>20.239302059520014</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="6"/>
+        <v>-54.408974237145003</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6134543680630031</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="6"/>
+        <v>-3.6118094029111489</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="6"/>
+        <v>-10.212155491151861</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="6"/>
+        <v>53.129143466459027</v>
+      </c>
+      <c r="M50" s="6">
+        <f>M40-$M$40</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" ref="N50:AP50" si="7">N40-$M$40</f>
+        <v>-5.9014780938962303</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="7"/>
+        <v>-3.5326529074470727</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.2486024828488098</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="7"/>
+        <v>29.670388750514803</v>
+      </c>
+      <c r="R50" s="6">
+        <f t="shared" si="7"/>
+        <v>26.968230640345837</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="7"/>
+        <v>-87.966696482637872</v>
+      </c>
+      <c r="T50" s="2">
+        <f t="shared" si="7"/>
+        <v>-25.942401271203153</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="7"/>
+        <v>-38.084568511856332</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" si="7"/>
+        <v>14.831605620008759</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="7"/>
+        <v>8.8576668653267916</v>
+      </c>
+      <c r="X50" s="2">
+        <f t="shared" si="7"/>
+        <v>-33.858972815098241</v>
+      </c>
+      <c r="Y50" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5365554037618949</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="7"/>
+        <v>-93.761719822864052</v>
+      </c>
+      <c r="AA50" s="2">
+        <f t="shared" si="7"/>
+        <v>-72.12678654688898</v>
+      </c>
+      <c r="AB50" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1416987206985141E-2</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" si="7"/>
+        <v>-39.708703679370956</v>
+      </c>
+      <c r="AD50" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.36711927707005998</v>
+      </c>
+      <c r="AE50" s="2">
+        <f t="shared" si="7"/>
+        <v>6.032538325682026</v>
+      </c>
+      <c r="AF50" s="2">
+        <f t="shared" si="7"/>
+        <v>-44.108762622342056</v>
+      </c>
+      <c r="AG50" s="2">
+        <f t="shared" si="7"/>
+        <v>-20.69975958652617</v>
+      </c>
+      <c r="AH50" s="2">
+        <f t="shared" si="7"/>
+        <v>-31.895628509065091</v>
+      </c>
+      <c r="AI50" s="2">
+        <f t="shared" si="7"/>
+        <v>24.346623567315874</v>
+      </c>
+      <c r="AJ50" s="2">
+        <f t="shared" si="7"/>
+        <v>-12.257948924254151</v>
+      </c>
+      <c r="AK50" s="2">
+        <f t="shared" si="7"/>
+        <v>-8.6051895850118854</v>
+      </c>
+      <c r="AL50" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4574104718678882</v>
+      </c>
+      <c r="AM50" s="2">
+        <f t="shared" si="7"/>
+        <v>-32.976166201613069</v>
+      </c>
+      <c r="AN50" s="2">
+        <f t="shared" si="7"/>
+        <v>-13.717017797818016</v>
+      </c>
+      <c r="AO50" s="2">
+        <f t="shared" si="7"/>
+        <v>-24.714285047869907</v>
+      </c>
+      <c r="AP50" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1374044521828637</v>
+      </c>
+    </row>
+    <row r="51" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <f t="shared" ref="D51:L51" si="8">D43-$M$43</f>
+        <v>-61.728131587547068</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="8"/>
+        <v>-30.600744806210059</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="8"/>
+        <v>-58.613235665456045</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="8"/>
+        <v>-24.137108387275021</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="8"/>
+        <v>-54.110554368579983</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="8"/>
+        <v>-31.552946021104958</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="8"/>
+        <v>-49.685462757647997</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="8"/>
+        <v>-54.41332367310099</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="8"/>
+        <v>-28.692433188406994</v>
+      </c>
+      <c r="M51" s="6">
+        <f>M43-$M$43</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" ref="N51:AP51" si="9">N43-$M$43</f>
+        <v>-14.882395916172868</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="9"/>
+        <v>-1.667648497510072</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.78694766677404004</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="9"/>
+        <v>-53.759040070213018</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" si="9"/>
+        <v>-8.707935052538005</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="9"/>
+        <v>9.447824820423989</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="9"/>
+        <v>-18.867792752937021</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="9"/>
+        <v>-18.914073394989032</v>
+      </c>
+      <c r="V51" s="2">
+        <f t="shared" si="9"/>
+        <v>-60.377887218390924</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" si="9"/>
+        <v>-9.7148341606759914</v>
+      </c>
+      <c r="X51" s="2">
+        <f t="shared" si="9"/>
+        <v>-48.317293938927946</v>
+      </c>
+      <c r="Y51" s="2">
+        <f t="shared" si="9"/>
+        <v>-30.584712698852059</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="9"/>
+        <v>18.530705910936149</v>
+      </c>
+      <c r="AA51" s="2">
+        <f t="shared" si="9"/>
+        <v>10.462368927609077</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" si="9"/>
+        <v>15.40012558261401</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38430237061697881</v>
+      </c>
+      <c r="AD51" s="2">
+        <f t="shared" si="9"/>
+        <v>22.776460509291951</v>
+      </c>
+      <c r="AE51" s="2">
+        <f t="shared" si="9"/>
+        <v>-12.097372737497039</v>
+      </c>
+      <c r="AF51" s="2">
+        <f t="shared" si="9"/>
+        <v>-16.983047095799066</v>
+      </c>
+      <c r="AG51" s="2">
+        <f t="shared" si="9"/>
+        <v>-15.572496546737966</v>
+      </c>
+      <c r="AH51" s="2">
+        <f t="shared" si="9"/>
+        <v>8.2751405081950224</v>
+      </c>
+      <c r="AI51" s="2">
+        <f t="shared" si="9"/>
+        <v>-11.473161128338006</v>
+      </c>
+      <c r="AJ51" s="2">
+        <f t="shared" si="9"/>
+        <v>-26.075698105219089</v>
+      </c>
+      <c r="AK51" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3820017102740394</v>
+      </c>
+      <c r="AL51" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.9941184489910029</v>
+      </c>
+      <c r="AM51" s="2">
+        <f t="shared" si="9"/>
+        <v>-7.0367276010059641</v>
+      </c>
+      <c r="AN51" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9047823950430711</v>
+      </c>
+      <c r="AO51" s="2">
+        <f t="shared" si="9"/>
+        <v>-1.4037174031200266</v>
+      </c>
+      <c r="AP51" s="2">
+        <f t="shared" si="9"/>
+        <v>49.378939045722973</v>
       </c>
     </row>
   </sheetData>
@@ -6307,7 +6641,7 @@
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:AP39">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6319,7 +6653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AP41 D43:AP43">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-15"/>
         <cfvo type="num" val="0"/>
@@ -6330,8 +6664,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D42:AP42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D45:AP45">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6343,7 +6689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:AP46">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-15"/>
         <cfvo type="num" val="0"/>
@@ -6354,15 +6700,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:AP42">
+  <conditionalFormatting sqref="D50:AP51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/results/VRE_resource_summary_reseamed_years.xlsx
+++ b/results/VRE_resource_summary_reseamed_years.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathan\git\PhD\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\129.16.54.22\Users\jonathan\git\PhD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D383208-C24F-49BC-BFBB-BD305D93928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3540" windowWidth="28800" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$65:$D$75</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>pot_cap</t>
   </si>
@@ -217,11 +219,14 @@
   <si>
     <t>Solar</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -248,12 +253,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -283,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -299,6 +310,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,11 +623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AN42" sqref="AN42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1023,7 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1127,7 +1151,7 @@
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1253,7 +1277,7 @@
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1379,7 +1403,7 @@
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1505,7 +1529,7 @@
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
@@ -1631,7 +1655,7 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1757,7 +1781,7 @@
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1885,7 +1909,7 @@
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -2011,7 +2035,7 @@
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2161,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2287,7 @@
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
@@ -2389,7 +2413,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2515,7 +2539,7 @@
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2643,7 +2667,7 @@
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -2769,7 +2793,7 @@
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2895,7 +2919,7 @@
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
@@ -3149,7 +3173,7 @@
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3277,7 +3301,7 @@
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -3403,7 +3427,7 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3531,7 +3555,7 @@
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3657,7 +3681,7 @@
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
@@ -3783,7 +3807,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
@@ -3909,7 +3933,7 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4037,7 +4061,7 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
@@ -4163,7 +4187,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
@@ -4289,7 +4313,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
@@ -4415,7 +4439,7 @@
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
@@ -4541,7 +4565,7 @@
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4669,7 +4693,7 @@
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
@@ -4795,7 +4819,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
@@ -4921,7 +4945,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
@@ -5047,7 +5071,7 @@
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
@@ -5171,6 +5195,67 @@
       <c r="AP36" s="2">
         <v>1494.4383</v>
       </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="T37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D38" s="4" t="s">
@@ -6306,7 +6391,7 @@
         <v>87.472267285065527</v>
       </c>
     </row>
-    <row r="49" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:42" x14ac:dyDescent="0.25">
       <c r="Q49" t="s">
         <v>59</v>
       </c>
@@ -6314,7 +6399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <f t="shared" ref="D50:L50" si="6">D40-$M$40</f>
         <v>0.96601563371700649</v>
@@ -6472,7 +6557,7 @@
         <v>9.1374044521828637</v>
       </c>
     </row>
-    <row r="51" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" ref="D51:L51" si="8">D43-$M$43</f>
         <v>-61.728131587547068</v>
@@ -6630,7 +6715,198 @@
         <v>49.378939045722973</v>
       </c>
     </row>
+    <row r="54" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="M54" s="6">
+        <f>M46</f>
+        <v>28.955923787160145</v>
+      </c>
+      <c r="O54" s="6">
+        <f>O46</f>
+        <v>23.755622382202773</v>
+      </c>
+      <c r="P54" s="6">
+        <f>P46</f>
+        <v>26.920373637537296</v>
+      </c>
+      <c r="R54" s="6">
+        <f>R46</f>
+        <v>47.216219374967523</v>
+      </c>
+      <c r="T54" s="6">
+        <f>T46</f>
+        <v>-15.854270236980028</v>
+      </c>
+      <c r="X54" s="6">
+        <f>X46</f>
+        <v>-53.22034296686661</v>
+      </c>
+      <c r="Z54" s="6">
+        <f>Z46</f>
+        <v>-46.275090124768212</v>
+      </c>
+      <c r="AF54" s="6">
+        <f>AF46</f>
+        <v>-32.135885930981203</v>
+      </c>
+      <c r="AM54" s="6">
+        <f>AM46</f>
+        <v>-11.056970015459001</v>
+      </c>
+      <c r="AN54" s="6">
+        <f>AN46</f>
+        <v>21.143688384385086</v>
+      </c>
+    </row>
+    <row r="63" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C64" s="6">
+        <v>28.955923787160145</v>
+      </c>
+      <c r="D64" s="6">
+        <v>23.755622382202773</v>
+      </c>
+      <c r="E64" s="6">
+        <v>26.920373637537296</v>
+      </c>
+      <c r="F64" s="6">
+        <v>47.216219374967523</v>
+      </c>
+      <c r="G64" s="6">
+        <v>-15.854270236980028</v>
+      </c>
+      <c r="H64" s="6">
+        <v>-53.22034296686661</v>
+      </c>
+      <c r="I64" s="6">
+        <v>-46.275090124768212</v>
+      </c>
+      <c r="J64" s="6">
+        <v>-32.135885930981203</v>
+      </c>
+      <c r="K64" s="6">
+        <v>-11.056970015459001</v>
+      </c>
+      <c r="L64" s="6">
+        <v>21.143688384385086</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="6">
+        <v>-53.22034296686661</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="6">
+        <v>-46.275090124768212</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="6">
+        <v>-32.135885930981203</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="6">
+        <v>-15.854270236980028</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="6">
+        <v>-11.056970015459001</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="6">
+        <v>21.143688384385086</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="6">
+        <v>23.755622382202773</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="6">
+        <v>26.920373637537296</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6">
+        <v>28.955923787160145</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="6">
+        <v>47.216219374967523</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C65:D75">
+    <sortState ref="C66:D75">
+      <sortCondition ref="D65:D75"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A21:A22"/>

--- a/results/VRE_resource_summary_reseamed_years.xlsx
+++ b/results/VRE_resource_summary_reseamed_years.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\129.16.54.22\Users\jonathan\git\PhD\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PhD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6035F-78C6-40A3-A34F-D13A1DE6264E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="12300"/>
+    <workbookView xWindow="1890" yWindow="1320" windowWidth="43740" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$65:$D$75</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -226,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -294,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -304,15 +305,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,6 +315,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -623,22 +621,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AN42" sqref="AN42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" style="8" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" style="7" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="7" customWidth="1"/>
     <col min="19" max="43" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,22 +801,22 @@
       <c r="L2" s="2">
         <v>2477.4358999999999</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>2539.0758000000001</v>
       </c>
       <c r="N2" s="2">
         <v>2551.3335999999999</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>2631.751600000001</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>2669.9843000000001</v>
       </c>
       <c r="Q2" s="2">
         <v>2979.9403000000002</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>3000.4654</v>
       </c>
       <c r="S2" s="2">
@@ -931,22 +929,22 @@
       <c r="L3" s="2">
         <v>3232.4938000000002</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>3333.0369000000001</v>
       </c>
       <c r="N3" s="2">
         <v>3307.0275000000001</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>3325.1858000000002</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>3369.7865000000002</v>
       </c>
       <c r="Q3" s="2">
         <v>3708.3146000000002</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>3707.3319000000001</v>
       </c>
       <c r="S3" s="2">
@@ -1023,7 +1021,7 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1059,22 +1057,22 @@
       <c r="L4" s="2">
         <v>4414.4665999999997</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>4480.5746999999992</v>
       </c>
       <c r="N4" s="2">
         <v>4293.3865000000014</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>4295.2443999999996</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>4272.6841999999997</v>
       </c>
       <c r="Q4" s="2">
         <v>4068.5513999999998</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>4261.3806000000004</v>
       </c>
       <c r="S4" s="2">
@@ -1151,7 +1149,7 @@
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1185,22 +1183,22 @@
       <c r="L5" s="2">
         <v>4686.5524999999998</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>4400.0874999999996</v>
       </c>
       <c r="N5" s="2">
         <v>4278.0309999999999</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>4307.660100000001</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>4340.9784999999993</v>
       </c>
       <c r="Q5" s="2">
         <v>4361.7376000000004</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>4466.6179000000002</v>
       </c>
       <c r="S5" s="2">
@@ -1277,7 +1275,7 @@
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1311,22 +1309,22 @@
       <c r="L6" s="2">
         <v>4509.2271000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>4441.7396999999992</v>
       </c>
       <c r="N6" s="2">
         <v>4003.1046999999999</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>4159.5216</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>4215.1814000000004</v>
       </c>
       <c r="Q6" s="2">
         <v>4015.2321999999999</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>4228.4530999999997</v>
       </c>
       <c r="S6" s="2">
@@ -1403,7 +1401,7 @@
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1437,22 +1435,22 @@
       <c r="L7" s="2">
         <v>4678.8671999999997</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>4346.9138999999996</v>
       </c>
       <c r="N7" s="2">
         <v>4145.0465999999997</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>4338.4354999999996</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>4333.6157000000003</v>
       </c>
       <c r="Q7" s="2">
         <v>4069.0012000000002</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>4399.7649000000001</v>
       </c>
       <c r="S7" s="2">
@@ -1529,7 +1527,7 @@
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
@@ -1563,22 +1561,22 @@
       <c r="L8" s="2">
         <v>4503.2407000000003</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>4472.2103999999999</v>
       </c>
       <c r="N8" s="2">
         <v>4398.4421000000002</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>4439.6424999999999</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>4458.6282000000001</v>
       </c>
       <c r="Q8" s="2">
         <v>4536.6823999999997</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>4629.4804000000004</v>
       </c>
       <c r="S8" s="2">
@@ -1655,7 +1653,7 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1689,22 +1687,22 @@
       <c r="L9" s="2">
         <v>4243.4052000000001</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>4293.8458000000001</v>
       </c>
       <c r="N9" s="2">
         <v>4186.0601999999999</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>4173.4354000000003</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>4230.6621999999998</v>
       </c>
       <c r="Q9" s="2">
         <v>4454.317500000001</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>4452.5595000000003</v>
       </c>
       <c r="S9" s="2">
@@ -1781,7 +1779,7 @@
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1817,22 +1815,22 @@
       <c r="L10" s="2">
         <v>5030.8897000000006</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>5080.0687999999991</v>
       </c>
       <c r="N10" s="2">
         <v>4920.4244999999992</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>4934.1450000000004</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>4937.2403999999997</v>
       </c>
       <c r="Q10" s="2">
         <v>4780.9471000000003</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>4910.0574999999999</v>
       </c>
       <c r="S10" s="2">
@@ -1909,7 +1907,7 @@
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1943,22 +1941,22 @@
       <c r="L11" s="2">
         <v>5165.2406999999994</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>4919.0605000000014</v>
       </c>
       <c r="N11" s="2">
         <v>4901.6553999999996</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>4902.5160999999998</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>4948.7955000000002</v>
       </c>
       <c r="Q11" s="2">
         <v>5156.0887000000002</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>5159.6372000000001</v>
       </c>
       <c r="S11" s="2">
@@ -2035,7 +2033,7 @@
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
@@ -2069,22 +2067,22 @@
       <c r="L12" s="2">
         <v>5091.1062999999986</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>4994.9495000000006</v>
       </c>
       <c r="N12" s="2">
         <v>4678.5694000000003</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>4791.1960000000008</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>4863.8454000000002</v>
       </c>
       <c r="Q12" s="2">
         <v>4690.8189000000002</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>4784.5110000000004</v>
       </c>
       <c r="S12" s="2">
@@ -2161,7 +2159,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
@@ -2195,22 +2193,22 @@
       <c r="L13" s="2">
         <v>5371.7272999999996</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>5146.2744000000002</v>
       </c>
       <c r="N13" s="2">
         <v>4989.8558999999996</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>4986.1604000000007</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>5001.0716000000002</v>
       </c>
       <c r="Q13" s="2">
         <v>4904.2242999999999</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>5132.8482999999997</v>
       </c>
       <c r="S13" s="2">
@@ -2287,7 +2285,7 @@
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
@@ -2321,22 +2319,22 @@
       <c r="L14" s="2">
         <v>5231.4432999999999</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>5011.488699999999</v>
       </c>
       <c r="N14" s="2">
         <v>4972.6937999999991</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>5039.8980000000001</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>5008.1767</v>
       </c>
       <c r="Q14" s="2">
         <v>5152.7381999999998</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>5100.6722</v>
       </c>
       <c r="S14" s="2">
@@ -2413,7 +2411,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2447,22 +2445,22 @@
       <c r="L15" s="2">
         <v>4860.1653999999999</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>4808.2607000000007</v>
       </c>
       <c r="N15" s="2">
         <v>4718.2546000000002</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>4747.2376000000004</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>4771.4529000000002</v>
       </c>
       <c r="Q15" s="2">
         <v>4912.3046000000004</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>4905.4880999999996</v>
       </c>
       <c r="S15" s="2">
@@ -2539,7 +2537,7 @@
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2575,22 +2573,22 @@
       <c r="L16" s="2">
         <v>3593.8651</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>3756.8910000000001</v>
       </c>
       <c r="N16" s="2">
         <v>3561.4693000000002</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>3604.4969000000001</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>3520.5101</v>
       </c>
       <c r="Q16" s="2">
         <v>3371.6133</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>3538.5180999999998</v>
       </c>
       <c r="S16" s="2">
@@ -2667,7 +2665,7 @@
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -2701,22 +2699,22 @@
       <c r="L17" s="2">
         <v>3602.7642000000001</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>3401.8602999999998</v>
       </c>
       <c r="N17" s="2">
         <v>3300.5074</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>3243.9169999999999</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>3326.5065</v>
       </c>
       <c r="Q17" s="2">
         <v>2853.9171999999999</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>3296.282999999999</v>
       </c>
       <c r="S17" s="2">
@@ -2793,7 +2791,7 @@
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2827,22 +2825,22 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>0</v>
       </c>
       <c r="S18" s="2">
@@ -2919,7 +2917,7 @@
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
@@ -2953,22 +2951,22 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>0</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>0</v>
       </c>
       <c r="S19" s="2">
@@ -3081,22 +3079,22 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <v>0</v>
       </c>
       <c r="S20" s="2">
@@ -3173,7 +3171,7 @@
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3209,22 +3207,22 @@
       <c r="L21" s="2">
         <v>5510.797700000001</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>5155.9533000000001</v>
       </c>
       <c r="N21" s="2">
         <v>5236.8453999999992</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>5059.3362999999999</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>5123.4078</v>
       </c>
       <c r="Q21" s="2">
         <v>5127.9655000000002</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>5247.7456000000002</v>
       </c>
       <c r="S21" s="2">
@@ -3301,7 +3299,7 @@
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -3335,22 +3333,22 @@
       <c r="L22" s="2">
         <v>5461.7541000000001</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>5165.3125</v>
       </c>
       <c r="N22" s="2">
         <v>4915.6602000000003</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>5160.4214999999986</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>5067.9215000000004</v>
       </c>
       <c r="Q22" s="2">
         <v>4814.8724999999986</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>5174.2646999999997</v>
       </c>
       <c r="S22" s="2">
@@ -3427,7 +3425,7 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3463,22 +3461,22 @@
       <c r="L23" s="2">
         <v>5627.3780999999999</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>5352.8638000000001</v>
       </c>
       <c r="N23" s="2">
         <v>5445.4341000000004</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>5370.585399999999</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>5405.9211999999998</v>
       </c>
       <c r="Q23" s="2">
         <v>5648.6307999999999</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="5">
         <v>5572.8410000000003</v>
       </c>
       <c r="S23" s="2">
@@ -3555,7 +3553,7 @@
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3589,22 +3587,22 @@
       <c r="L24" s="2">
         <v>4996.1071000000002</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>5115.1203999999998</v>
       </c>
       <c r="N24" s="2">
         <v>4681.7022999999999</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>4883.8752999999997</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>4911.9264999999996</v>
       </c>
       <c r="Q24" s="2">
         <v>4659.6715000000004</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>4676.3160000000007</v>
       </c>
       <c r="S24" s="2">
@@ -3681,7 +3679,7 @@
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
@@ -3715,22 +3713,22 @@
       <c r="L25" s="2">
         <v>5679.5779000000002</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>5505.3851000000004</v>
       </c>
       <c r="N25" s="2">
         <v>5395.3887000000004</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>5322.0492999999997</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>5312.1721999999991</v>
       </c>
       <c r="Q25" s="2">
         <v>5283.8462</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="5">
         <v>5446.9274999999998</v>
       </c>
       <c r="S25" s="2">
@@ -3807,7 +3805,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
@@ -3841,22 +3839,22 @@
       <c r="L26" s="2">
         <v>5736.7195000000002</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>5408.5474999999997</v>
       </c>
       <c r="N26" s="2">
         <v>5495.5303999999987</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>5466.9133000000002</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>5464.2319000000007</v>
       </c>
       <c r="Q26" s="2">
         <v>5660.3360000000002</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="5">
         <v>5526.1203999999998</v>
       </c>
       <c r="S26" s="2">
@@ -3933,7 +3931,7 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3969,22 +3967,22 @@
       <c r="L27" s="2">
         <v>940.50789999999995</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>988.2152000000001</v>
       </c>
       <c r="N27" s="2">
         <v>988.03070000000002</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>969.9556</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="5">
         <v>926.05460000000005</v>
       </c>
       <c r="Q27" s="2">
         <v>976.76250000000005</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="5">
         <v>998.75819999999999</v>
       </c>
       <c r="S27" s="2">
@@ -4061,7 +4059,7 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
@@ -4095,22 +4093,22 @@
       <c r="L28" s="2">
         <v>1185.1569999999999</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>1237.1904</v>
       </c>
       <c r="N28" s="2">
         <v>1094.6335999999999</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>1231.4356</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>1231.0431000000001</v>
       </c>
       <c r="Q28" s="2">
         <v>1165.1271999999999</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="5">
         <v>1222.3339000000001</v>
       </c>
       <c r="S28" s="2">
@@ -4187,7 +4185,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
@@ -4221,22 +4219,22 @@
       <c r="L29" s="2">
         <v>1021.0335</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <v>1100.2104999999999</v>
       </c>
       <c r="N29" s="2">
         <v>987.03830000000005</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>1038.4981</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>986.76950000000011</v>
       </c>
       <c r="Q29" s="2">
         <v>1033.0963999999999</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="5">
         <v>1059.5214000000001</v>
       </c>
       <c r="S29" s="2">
@@ -4313,7 +4311,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
@@ -4347,22 +4345,22 @@
       <c r="L30" s="2">
         <v>1194.9069999999999</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <v>1227.5273</v>
       </c>
       <c r="N30" s="2">
         <v>1225.8527999999999</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>1253.0153</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <v>1241.4152999999999</v>
       </c>
       <c r="Q30" s="2">
         <v>1110.2744</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="5">
         <v>1258.3818000000001</v>
       </c>
       <c r="S30" s="2">
@@ -4439,7 +4437,7 @@
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
@@ -4473,22 +4471,22 @@
       <c r="L31" s="2">
         <v>1194.0431000000001</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>1227.9861000000001</v>
       </c>
       <c r="N31" s="2">
         <v>1236.7674999999999</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>1249.4413999999999</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>1245.8408999999999</v>
       </c>
       <c r="Q31" s="2">
         <v>1117.7299</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="5">
         <v>1257.4684</v>
       </c>
       <c r="S31" s="2">
@@ -4565,7 +4563,7 @@
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4601,22 +4599,22 @@
       <c r="L32" s="2">
         <v>1313.9401</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>1360.3045</v>
       </c>
       <c r="N32" s="2">
         <v>1245.3809000000001</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>1338.944</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>1366.1468</v>
       </c>
       <c r="Q32" s="2">
         <v>1228.7406000000001</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="5">
         <v>1338.5744</v>
       </c>
       <c r="S32" s="2">
@@ -4693,7 +4691,7 @@
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
@@ -4727,22 +4725,22 @@
       <c r="L33" s="2">
         <v>1208.1545000000001</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>1285.2270000000001</v>
       </c>
       <c r="N33" s="2">
         <v>1279.3749</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>1330.5636999999999</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <v>1291.6300000000001</v>
       </c>
       <c r="Q33" s="2">
         <v>1284.7309</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="5">
         <v>1295.6587</v>
       </c>
       <c r="S33" s="2">
@@ -4819,7 +4817,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
@@ -4853,22 +4851,22 @@
       <c r="L34" s="2">
         <v>1256.4777999999999</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="5">
         <v>1284.7085999999999</v>
       </c>
       <c r="N34" s="2">
         <v>1181.0703000000001</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>1268.5054</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <v>1271.364</v>
       </c>
       <c r="Q34" s="2">
         <v>1225.0539000000001</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="5">
         <v>1240.2063000000001</v>
       </c>
       <c r="S34" s="2">
@@ -4945,7 +4943,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
@@ -4979,22 +4977,22 @@
       <c r="L35" s="2">
         <v>1259.4487999999999</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <v>1301.7076999999999</v>
       </c>
       <c r="N35" s="2">
         <v>1272.1146000000001</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <v>1309.2835</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <v>1306.9518</v>
       </c>
       <c r="Q35" s="2">
         <v>1171.5864999999999</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="5">
         <v>1303.4526000000001</v>
       </c>
       <c r="S35" s="2">
@@ -5071,7 +5069,7 @@
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
@@ -5105,22 +5103,22 @@
       <c r="L36" s="2">
         <v>1305.5211999999999</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
         <v>1385.6477</v>
       </c>
       <c r="N36" s="2">
         <v>1372.163</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>1369.5632000000001</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <v>1383.1375</v>
       </c>
       <c r="Q36" s="2">
         <v>1280.7765999999999</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="5">
         <v>1336.1328000000001</v>
       </c>
       <c r="S36" s="2">
@@ -5197,65 +5195,65 @@
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="11" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="11" t="s">
+      <c r="N37" s="8"/>
+      <c r="O37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="8"/>
+      <c r="R37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S37" s="10"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="8"/>
+      <c r="T37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10" t="s">
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10" t="s">
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10" t="s">
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10" t="s">
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AN37" s="10" t="s">
+      <c r="AN37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="10"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D38" s="4" t="s">
@@ -5381,164 +5379,164 @@
         <v>56</v>
       </c>
       <c r="D39" s="3">
-        <f>SUMPRODUCT($C$2:$C$26,D2:D26)/1000</f>
-        <v>1336.0953417557901</v>
+        <f>SUMPRODUCT($C$2:$C$26,D2:D26)/SUM($C$2:$C$26)</f>
+        <v>4692.2274435534428</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" ref="E39:AP39" si="0">SUMPRODUCT($C$2:$C$26,E2:E26)/1000</f>
-        <v>1265.0240161745912</v>
+        <f t="shared" ref="E39:AP39" si="0">SUMPRODUCT($C$2:$C$26,E2:E26)/SUM($C$2:$C$26)</f>
+        <v>4442.632363082922</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>1344.6714401645443</v>
+        <v>4722.3458064086626</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>1355.3686281815931</v>
+        <v>4759.9132146719739</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="0"/>
-        <v>1280.720351884928</v>
+        <v>4497.7562564770005</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
-        <v>1337.7427804901361</v>
+        <v>4698.0130765088816</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="0"/>
-        <v>1331.5175167191619</v>
+        <v>4676.1505996356836</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
-        <v>1324.9171706309212</v>
+        <v>4652.9708727971065</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="0"/>
-        <v>1388.2584695885321</v>
-      </c>
-      <c r="M39" s="7">
+        <v>4875.4189062500582</v>
+      </c>
+      <c r="M39" s="3">
         <f t="shared" si="0"/>
-        <v>1335.1293261220731</v>
+        <v>4688.8348974335877</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" si="0"/>
-        <v>1329.2278480281768</v>
-      </c>
-      <c r="O39" s="7">
+        <v>4668.1095220772759</v>
+      </c>
+      <c r="O39" s="3">
         <f t="shared" si="0"/>
-        <v>1331.596673214626</v>
-      </c>
-      <c r="P39" s="7">
+        <v>4676.4285889892453</v>
+      </c>
+      <c r="P39" s="3">
         <f t="shared" si="0"/>
-        <v>1333.8807236392242</v>
+        <v>4684.4499357822633</v>
       </c>
       <c r="Q39" s="3">
         <f t="shared" si="0"/>
-        <v>1364.7997148725879</v>
-      </c>
-      <c r="R39" s="7">
+        <v>4793.0342071723026</v>
+      </c>
+      <c r="R39" s="3">
         <f t="shared" si="0"/>
-        <v>1362.0975567624189</v>
+        <v>4783.5445098093187</v>
       </c>
       <c r="S39" s="3">
         <f t="shared" si="0"/>
-        <v>1247.1626296394352</v>
+        <v>4379.9050370748555</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="0"/>
-        <v>1309.1869248508699</v>
+        <v>4597.7278907760765</v>
       </c>
       <c r="U39" s="3">
         <f t="shared" si="0"/>
-        <v>1297.0447576102167</v>
+        <v>4555.0858662361679</v>
       </c>
       <c r="V39" s="3">
         <f t="shared" si="0"/>
-        <v>1349.9609317420818</v>
+        <v>4740.9219489689322</v>
       </c>
       <c r="W39" s="3">
         <f t="shared" si="0"/>
-        <v>1343.9869929873998</v>
+        <v>4719.9420993318618</v>
       </c>
       <c r="X39" s="3">
         <f t="shared" si="0"/>
-        <v>1301.2703533069748</v>
+        <v>4569.9257174608811</v>
       </c>
       <c r="Y39" s="3">
         <f t="shared" si="0"/>
-        <v>1337.6658815258349</v>
+        <v>4697.7430153692321</v>
       </c>
       <c r="Z39" s="3">
         <f t="shared" si="0"/>
-        <v>1241.367606299209</v>
+        <v>4359.5535197068584</v>
       </c>
       <c r="AA39" s="3">
         <f t="shared" si="0"/>
-        <v>1263.0025395751841</v>
+        <v>4435.533148169281</v>
       </c>
       <c r="AB39" s="3">
         <f t="shared" si="0"/>
-        <v>1335.14074310928</v>
+        <v>4688.8749927015087</v>
       </c>
       <c r="AC39" s="3">
         <f t="shared" si="0"/>
-        <v>1295.4206224427021</v>
+        <v>4549.3820729761464</v>
       </c>
       <c r="AD39" s="3">
         <f t="shared" si="0"/>
-        <v>1334.762206845003</v>
+        <v>4687.545612834585</v>
       </c>
       <c r="AE39" s="3">
         <f t="shared" si="0"/>
-        <v>1341.1618644477551</v>
+        <v>4710.0205426502353</v>
       </c>
       <c r="AF39" s="3">
         <f t="shared" si="0"/>
-        <v>1291.020563499731</v>
+        <v>4533.9295250327259</v>
       </c>
       <c r="AG39" s="3">
         <f t="shared" si="0"/>
-        <v>1314.4295665355469</v>
+        <v>4616.1395014005338</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="0"/>
-        <v>1303.233697613008</v>
+        <v>4576.8207778252163</v>
       </c>
       <c r="AI39" s="3">
         <f t="shared" si="0"/>
-        <v>1359.4759496893889</v>
+        <v>4774.3376992847643</v>
       </c>
       <c r="AJ39" s="3">
         <f t="shared" si="0"/>
-        <v>1322.8713771978189</v>
+        <v>4645.7862597005369</v>
       </c>
       <c r="AK39" s="3">
         <f t="shared" si="0"/>
-        <v>1326.5241365370612</v>
+        <v>4658.6143694024731</v>
       </c>
       <c r="AL39" s="3">
         <f t="shared" si="0"/>
-        <v>1342.5867365939409</v>
+        <v>4715.0245449687391</v>
       </c>
       <c r="AM39" s="3">
         <f t="shared" si="0"/>
-        <v>1302.15315992046</v>
+        <v>4573.0260421829953</v>
       </c>
       <c r="AN39" s="3">
         <f t="shared" si="0"/>
-        <v>1321.412308324255</v>
+        <v>4640.6621620432743</v>
       </c>
       <c r="AO39" s="3">
         <f t="shared" si="0"/>
-        <v>1310.4150410742031</v>
+        <v>4602.0409068213421</v>
       </c>
       <c r="AP39" s="3">
         <f t="shared" si="0"/>
-        <v>1344.2667305742559</v>
+        <v>4720.9245085514867</v>
       </c>
       <c r="AQ39" s="3">
         <f>AVERAGE(D39:AP39)</f>
-        <v>1321.9633559018187</v>
+        <v>4642.5973836441135</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -5547,159 +5545,159 @@
       </c>
       <c r="D40" s="2">
         <f>D39-AVERAGE($D$39:$AP$39)</f>
-        <v>14.131985853971401</v>
+        <v>49.630059909329248</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40:AP40" si="1">E39-AVERAGE($D$39:$AP$39)</f>
-        <v>-56.939339727227434</v>
+        <v>-199.96502056119152</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>22.708084262725606</v>
+        <v>79.748422764549105</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
-        <v>33.405272279774408</v>
+        <v>117.31583102786044</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="1"/>
-        <v>-41.243004016890609</v>
+        <v>-144.84112716711297</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="1"/>
-        <v>15.779424588317397</v>
+        <v>55.415692864768062</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
-        <v>9.5541608173432451</v>
+        <v>33.553215991570141</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>2.9538147291025325</v>
+        <v>10.373489152992988</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="1"/>
-        <v>66.295113686713421</v>
-      </c>
-      <c r="M40" s="6">
+        <v>232.82152260594466</v>
+      </c>
+      <c r="M40" s="5">
         <f t="shared" si="1"/>
-        <v>13.165970220254394</v>
+        <v>46.237513789474178</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="1"/>
-        <v>7.2644921263581637</v>
-      </c>
-      <c r="O40" s="6">
+        <v>25.512138433162363</v>
+      </c>
+      <c r="O40" s="5">
         <f t="shared" si="1"/>
-        <v>9.6333173128073213</v>
-      </c>
-      <c r="P40" s="6">
+        <v>33.831205345131821</v>
+      </c>
+      <c r="P40" s="5">
         <f t="shared" si="1"/>
-        <v>11.917367737405584</v>
+        <v>41.852552138149804</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="1"/>
-        <v>42.836358970769197</v>
-      </c>
-      <c r="R40" s="6">
+        <v>150.43682352818905</v>
+      </c>
+      <c r="R40" s="5">
         <f t="shared" si="1"/>
-        <v>40.134200860600231</v>
+        <v>140.94712616520519</v>
       </c>
       <c r="S40" s="2">
         <f t="shared" si="1"/>
-        <v>-74.800726262383478</v>
+        <v>-262.69234656925801</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="1"/>
-        <v>-12.776431050948759</v>
+        <v>-44.869492868037014</v>
       </c>
       <c r="U40" s="2">
         <f t="shared" si="1"/>
-        <v>-24.918598291601938</v>
+        <v>-87.511517407945576</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" si="1"/>
-        <v>27.997575840263153</v>
+        <v>98.32456532481865</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="1"/>
-        <v>22.023637085581186</v>
+        <v>77.344715687748248</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="1"/>
-        <v>-20.693002594843847</v>
+        <v>-72.671666183232446</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="1"/>
-        <v>15.702525624016289</v>
+        <v>55.145631725118619</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="1"/>
-        <v>-80.595749602609658</v>
+        <v>-283.04386393725508</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="1"/>
-        <v>-58.960816326634585</v>
+        <v>-207.06423547483246</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="1"/>
-        <v>13.177387207461379</v>
+        <v>46.277609057395239</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="1"/>
-        <v>-26.542733459116562</v>
+        <v>-93.21531066796706</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="1"/>
-        <v>12.798850943184334</v>
+        <v>44.948229190471466</v>
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="1"/>
-        <v>19.19850854593642</v>
+        <v>67.42315900612175</v>
       </c>
       <c r="AF40" s="2">
         <f t="shared" si="1"/>
-        <v>-30.942792402087662</v>
+        <v>-108.6678586113876</v>
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="1"/>
-        <v>-7.5337893662717761</v>
+        <v>-26.457882243579661</v>
       </c>
       <c r="AH40" s="2">
         <f t="shared" si="1"/>
-        <v>-18.729658288810697</v>
+        <v>-65.776605818897224</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="1"/>
-        <v>37.512593787570268</v>
+        <v>131.74031564065081</v>
       </c>
       <c r="AJ40" s="2">
         <f t="shared" si="1"/>
-        <v>0.90802129600024273</v>
+        <v>3.1888760564233962</v>
       </c>
       <c r="AK40" s="2">
         <f t="shared" si="1"/>
-        <v>4.5607806352425087</v>
+        <v>16.016985758359624</v>
       </c>
       <c r="AL40" s="2">
         <f t="shared" si="1"/>
-        <v>20.623380692122282</v>
+        <v>72.427161324625558</v>
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="1"/>
-        <v>-19.810195981358675</v>
+        <v>-69.571341461118209</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="1"/>
-        <v>-0.55104757756362233</v>
+        <v>-1.9352216008392134</v>
       </c>
       <c r="AO40" s="2">
         <f t="shared" si="1"/>
-        <v>-11.548314827615513</v>
+        <v>-40.556476822771401</v>
       </c>
       <c r="AP40" s="2">
         <f t="shared" si="1"/>
-        <v>22.303374672437258</v>
+        <v>78.327124907373218</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -5712,12 +5710,12 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="6"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="6"/>
+      <c r="R41" s="5"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -5748,164 +5746,164 @@
         <v>60</v>
       </c>
       <c r="D42" s="3">
-        <f>SUMPRODUCT($C$27:$C$36,D27:D36)/1000</f>
-        <v>582.21755284610492</v>
+        <f>SUMPRODUCT($C$27:$C$36,D27:D36)/SUM($C$27:$C$36)</f>
+        <v>1191.5649178869419</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" ref="E42:AP42" si="2">SUMPRODUCT($C$27:$C$36,E27:E36)/1000</f>
-        <v>613.34493962744193</v>
+        <f t="shared" ref="E42:AP42" si="2">SUMPRODUCT($C$27:$C$36,E27:E36)/SUM($C$27:$C$36)</f>
+        <v>1255.2701461007377</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
-        <v>585.33244876819595</v>
+        <v>1197.939855718151</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="2"/>
-        <v>619.80857604637697</v>
+        <v>1268.4986074570293</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>589.83513006507201</v>
+        <v>1207.1550314605447</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="2"/>
-        <v>612.39273841254703</v>
+        <v>1253.3213735896863</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="2"/>
-        <v>594.26022167600399</v>
+        <v>1216.2114123550177</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="2"/>
-        <v>589.532360760551</v>
+        <v>1206.5353845953537</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="2"/>
-        <v>615.253251245245</v>
-      </c>
-      <c r="M42" s="7">
+        <v>1259.1756916567838</v>
+      </c>
+      <c r="M42" s="3">
         <f t="shared" si="2"/>
-        <v>643.94568443365199</v>
+        <v>1317.8975502283645</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="2"/>
-        <v>629.06328851747912</v>
-      </c>
-      <c r="O42" s="7">
+        <v>1287.4392777473511</v>
+      </c>
+      <c r="O42" s="3">
         <f t="shared" si="2"/>
-        <v>642.27803593614192</v>
-      </c>
-      <c r="P42" s="7">
+        <v>1314.4845451836247</v>
+      </c>
+      <c r="P42" s="3">
         <f t="shared" si="2"/>
-        <v>643.15873676687795</v>
+        <v>1316.2869851958314</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="2"/>
-        <v>590.18664436343897</v>
-      </c>
-      <c r="R42" s="7">
+        <v>1207.8744397023988</v>
+      </c>
+      <c r="R42" s="3">
         <f t="shared" si="2"/>
-        <v>635.23774938111399</v>
+        <v>1300.0759131699831</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="2"/>
-        <v>653.39350925407598</v>
+        <v>1337.2334437467352</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="2"/>
-        <v>625.07789168071497</v>
+        <v>1279.2827750254194</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="2"/>
-        <v>625.03161103866296</v>
+        <v>1279.1880571846793</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="2"/>
-        <v>583.56779721526107</v>
+        <v>1194.3283244743864</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="2"/>
-        <v>634.230850272976</v>
+        <v>1298.0151960939625</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="2"/>
-        <v>595.62839049472404</v>
+        <v>1219.0115030739669</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="2"/>
-        <v>613.36097173479993</v>
+        <v>1255.3029573696426</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="2"/>
-        <v>662.47639034458814</v>
+        <v>1355.8224443838453</v>
       </c>
       <c r="AA42" s="3">
         <f t="shared" si="2"/>
-        <v>654.40805336126107</v>
+        <v>1339.309807057771</v>
       </c>
       <c r="AB42" s="3">
         <f t="shared" si="2"/>
-        <v>659.345810016266</v>
+        <v>1349.4154068879463</v>
       </c>
       <c r="AC42" s="3">
         <f t="shared" si="2"/>
-        <v>644.32998680426897</v>
+        <v>1318.6840624529609</v>
       </c>
       <c r="AD42" s="3">
         <f t="shared" si="2"/>
-        <v>666.72214494294394</v>
+        <v>1364.5117946183534</v>
       </c>
       <c r="AE42" s="3">
         <f t="shared" si="2"/>
-        <v>631.84831169615495</v>
+        <v>1293.1390988863564</v>
       </c>
       <c r="AF42" s="3">
         <f t="shared" si="2"/>
-        <v>626.96263733785293</v>
+        <v>1283.1400905481257</v>
       </c>
       <c r="AG42" s="3">
         <f t="shared" si="2"/>
-        <v>628.37318788691402</v>
+        <v>1286.0269196053243</v>
       </c>
       <c r="AH42" s="3">
         <f t="shared" si="2"/>
-        <v>652.22082494184701</v>
+        <v>1334.8334311064814</v>
       </c>
       <c r="AI42" s="3">
         <f t="shared" si="2"/>
-        <v>632.47252330531398</v>
+        <v>1294.4166087298431</v>
       </c>
       <c r="AJ42" s="3">
         <f t="shared" si="2"/>
-        <v>617.8699863284329</v>
+        <v>1264.5310948205818</v>
       </c>
       <c r="AK42" s="3">
         <f t="shared" si="2"/>
-        <v>646.32768614392603</v>
+        <v>1322.7725486863026</v>
       </c>
       <c r="AL42" s="3">
         <f t="shared" si="2"/>
-        <v>635.95156598466099</v>
+        <v>1301.5368083601641</v>
       </c>
       <c r="AM42" s="3">
         <f t="shared" si="2"/>
-        <v>636.90895683264603</v>
+        <v>1303.4962019606978</v>
       </c>
       <c r="AN42" s="3">
         <f t="shared" si="2"/>
-        <v>649.85046682869506</v>
+        <v>1329.9822624038998</v>
       </c>
       <c r="AO42" s="3">
         <f t="shared" si="2"/>
-        <v>642.54196703053196</v>
+        <v>1315.0247058697416</v>
       </c>
       <c r="AP42" s="3">
         <f t="shared" si="2"/>
-        <v>693.32462347937496</v>
+        <v>1418.956357476166</v>
       </c>
       <c r="AQ42" s="3">
         <f>AVERAGE(D42:AP42)</f>
-        <v>628.15573086674715</v>
+        <v>1285.581872637722</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5914,159 +5912,159 @@
       </c>
       <c r="D43" s="2">
         <f>D42-AVERAGE($D$42:$AP$42)</f>
-        <v>-45.938178020642226</v>
+        <v>-94.016954750780087</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ref="E43:AP43" si="3">E42-AVERAGE($D$42:$AP$42)</f>
-        <v>-14.810791239305217</v>
+        <v>-30.311726536984224</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="3"/>
-        <v>-42.823282098551203</v>
+        <v>-87.642016919571006</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="3"/>
-        <v>-8.3471548203701786</v>
+        <v>-17.083265180692706</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="3"/>
-        <v>-38.320600801675141</v>
+        <v>-78.426841177177266</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="3"/>
-        <v>-15.762992454200116</v>
+        <v>-32.260499048035626</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="3"/>
-        <v>-33.895509190743155</v>
+        <v>-69.370460282704244</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="3"/>
-        <v>-38.623370106196148</v>
+        <v>-79.04648804236831</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="3"/>
-        <v>-12.902479621502152</v>
-      </c>
-      <c r="M43" s="6">
+        <v>-26.406180980938188</v>
+      </c>
+      <c r="M43" s="5">
         <f t="shared" si="3"/>
-        <v>15.789953566904842</v>
+        <v>32.315677590642508</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="3"/>
-        <v>0.90755765073197381</v>
-      </c>
-      <c r="O43" s="6">
+        <v>1.8574051096290987</v>
+      </c>
+      <c r="O43" s="5">
         <f t="shared" si="3"/>
-        <v>14.12230506939477</v>
-      </c>
-      <c r="P43" s="6">
+        <v>28.90267254590276</v>
+      </c>
+      <c r="P43" s="5">
         <f t="shared" si="3"/>
-        <v>15.003005900130802</v>
+        <v>30.705112558109477</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="3"/>
-        <v>-37.969086503308176</v>
-      </c>
-      <c r="R43" s="6">
+        <v>-77.707432935323141</v>
+      </c>
+      <c r="R43" s="5">
         <f t="shared" si="3"/>
-        <v>7.0820185143668368</v>
+        <v>14.494040532261124</v>
       </c>
       <c r="S43" s="2">
         <f t="shared" si="3"/>
-        <v>25.237778387328831</v>
+        <v>51.651571109013275</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="3"/>
-        <v>-3.077839186032179</v>
+        <v>-6.299097612302603</v>
       </c>
       <c r="U43" s="2">
         <f t="shared" si="3"/>
-        <v>-3.12411982808419</v>
+        <v>-6.3938154530426345</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="3"/>
-        <v>-44.587933651486082</v>
+        <v>-91.253548163335608</v>
       </c>
       <c r="W43" s="2">
         <f t="shared" si="3"/>
-        <v>6.0751194062288505</v>
+        <v>12.433323456240487</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="3"/>
-        <v>-32.527340372023104</v>
+        <v>-66.570369563755094</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="3"/>
-        <v>-14.794759131947217</v>
+        <v>-30.278915268079345</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="3"/>
-        <v>34.320659477840991</v>
+        <v>70.240571746123351</v>
       </c>
       <c r="AA43" s="2">
         <f t="shared" si="3"/>
-        <v>26.252322494513919</v>
+        <v>53.727934420048996</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="3"/>
-        <v>31.190079149518851</v>
+        <v>63.833534250224375</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="3"/>
-        <v>16.174255937521821</v>
+        <v>33.102189815238944</v>
       </c>
       <c r="AD43" s="2">
         <f t="shared" si="3"/>
-        <v>38.566414076196793</v>
+        <v>78.929921980631434</v>
       </c>
       <c r="AE43" s="2">
         <f t="shared" si="3"/>
-        <v>3.6925808294078024</v>
+        <v>7.5572262486343789</v>
       </c>
       <c r="AF43" s="2">
         <f t="shared" si="3"/>
-        <v>-1.1930935288942237</v>
+        <v>-2.441782089596245</v>
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="3"/>
-        <v>0.21745702016687574</v>
+        <v>0.44504696760236584</v>
       </c>
       <c r="AH43" s="2">
         <f t="shared" si="3"/>
-        <v>24.065094075099864</v>
+        <v>49.251558468759413</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="3"/>
-        <v>4.3167924385668357</v>
+        <v>8.8347360921211475</v>
       </c>
       <c r="AJ43" s="2">
         <f t="shared" si="3"/>
-        <v>-10.285744538314248</v>
+        <v>-21.050777817140215</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="3"/>
-        <v>18.171955277178881</v>
+        <v>37.190676048580599</v>
       </c>
       <c r="AL43" s="2">
         <f t="shared" si="3"/>
-        <v>7.795835117913839</v>
+        <v>15.954935722442087</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="3"/>
-        <v>8.7532259658988778</v>
+        <v>17.914329322975846</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="3"/>
-        <v>21.694735961947913</v>
+        <v>44.400389766177796</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="3"/>
-        <v>14.386236163784815</v>
+        <v>29.442833232019666</v>
       </c>
       <c r="AP43" s="2">
         <f t="shared" si="3"/>
-        <v>65.168892612627815</v>
+        <v>133.374484838444</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
@@ -6109,7 +6107,7 @@
         <f t="shared" si="4"/>
         <v>2003.511720833777</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <f t="shared" si="4"/>
         <v>1979.0750105557252</v>
       </c>
@@ -6117,11 +6115,11 @@
         <f t="shared" si="4"/>
         <v>1958.2911365456559</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <f t="shared" si="4"/>
         <v>1973.8747091507678</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <f t="shared" si="4"/>
         <v>1977.0394604061023</v>
       </c>
@@ -6129,7 +6127,7 @@
         <f t="shared" si="4"/>
         <v>1954.9863592360271</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="6">
         <f t="shared" si="4"/>
         <v>1997.3353061435325</v>
       </c>
@@ -6270,7 +6268,7 @@
         <f t="shared" si="5"/>
         <v>53.392634065211951</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="5">
         <f t="shared" si="5"/>
         <v>28.955923787160145</v>
       </c>
@@ -6278,11 +6276,11 @@
         <f t="shared" si="5"/>
         <v>8.1720497770909333</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="5">
         <f t="shared" si="5"/>
         <v>23.755622382202773</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="5">
         <f t="shared" si="5"/>
         <v>26.920373637537296</v>
       </c>
@@ -6290,7 +6288,7 @@
         <f t="shared" si="5"/>
         <v>4.867272467462044</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="5">
         <f t="shared" si="5"/>
         <v>47.216219374967523</v>
       </c>
@@ -6402,508 +6400,508 @@
     <row r="50" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <f t="shared" ref="D50:L50" si="6">D40-$M$40</f>
-        <v>0.96601563371700649</v>
+        <v>3.3925461198550693</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="6"/>
-        <v>-70.105309947481828</v>
+        <v>-246.2025343506657</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="6"/>
-        <v>9.5421140424712121</v>
+        <v>33.510908975074926</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="6"/>
-        <v>20.239302059520014</v>
+        <v>71.078317238386262</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="6"/>
-        <v>-54.408974237145003</v>
+        <v>-191.07864095658715</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="6"/>
-        <v>2.6134543680630031</v>
+        <v>9.1781790752938832</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="6"/>
-        <v>-3.6118094029111489</v>
+        <v>-12.684297797904037</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="6"/>
-        <v>-10.212155491151861</v>
+        <v>-35.86402463648119</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="6"/>
-        <v>53.129143466459027</v>
-      </c>
-      <c r="M50" s="6">
+        <v>186.58400881647049</v>
+      </c>
+      <c r="M50" s="5">
         <f>M40-$M$40</f>
         <v>0</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" ref="N50:AP50" si="7">N40-$M$40</f>
-        <v>-5.9014780938962303</v>
-      </c>
-      <c r="O50" s="6">
+        <v>-20.725375356311815</v>
+      </c>
+      <c r="O50" s="5">
         <f t="shared" si="7"/>
-        <v>-3.5326529074470727</v>
-      </c>
-      <c r="P50" s="6">
+        <v>-12.406308444342358</v>
+      </c>
+      <c r="P50" s="5">
         <f t="shared" si="7"/>
-        <v>-1.2486024828488098</v>
+        <v>-4.3849616513243745</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>29.670388750514803</v>
-      </c>
-      <c r="R50" s="6">
+        <v>104.19930973871487</v>
+      </c>
+      <c r="R50" s="5">
         <f t="shared" si="7"/>
-        <v>26.968230640345837</v>
+        <v>94.709612375731012</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="7"/>
-        <v>-87.966696482637872</v>
+        <v>-308.92986035873218</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="7"/>
-        <v>-25.942401271203153</v>
+        <v>-91.107006657511192</v>
       </c>
       <c r="U50" s="2">
         <f t="shared" si="7"/>
-        <v>-38.084568511856332</v>
+        <v>-133.74903119741975</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="7"/>
-        <v>14.831605620008759</v>
+        <v>52.087051535344472</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="7"/>
-        <v>8.8576668653267916</v>
+        <v>31.10720189827407</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="7"/>
-        <v>-33.858972815098241</v>
+        <v>-118.90917997270662</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="7"/>
-        <v>2.5365554037618949</v>
+        <v>8.9081179356444409</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="7"/>
-        <v>-93.761719822864052</v>
+        <v>-329.28137772672926</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="7"/>
-        <v>-72.12678654688898</v>
+        <v>-253.30174926430664</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="7"/>
-        <v>1.1416987206985141E-2</v>
+        <v>4.009526792106044E-2</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="7"/>
-        <v>-39.708703679370956</v>
+        <v>-139.45282445744124</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="7"/>
-        <v>-0.36711927707005998</v>
+        <v>-1.2892845990027126</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="7"/>
-        <v>6.032538325682026</v>
+        <v>21.185645216647572</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="7"/>
-        <v>-44.108762622342056</v>
+        <v>-154.90537240086178</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="7"/>
-        <v>-20.69975958652617</v>
+        <v>-72.695396033053839</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="7"/>
-        <v>-31.895628509065091</v>
+        <v>-112.0141196083714</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="7"/>
-        <v>24.346623567315874</v>
+        <v>85.502801851176628</v>
       </c>
       <c r="AJ50" s="2">
         <f t="shared" si="7"/>
-        <v>-12.257948924254151</v>
+        <v>-43.048637733050782</v>
       </c>
       <c r="AK50" s="2">
         <f t="shared" si="7"/>
-        <v>-8.6051895850118854</v>
+        <v>-30.220528031114554</v>
       </c>
       <c r="AL50" s="2">
         <f t="shared" si="7"/>
-        <v>7.4574104718678882</v>
+        <v>26.18964753515138</v>
       </c>
       <c r="AM50" s="2">
         <f t="shared" si="7"/>
-        <v>-32.976166201613069</v>
+        <v>-115.80885525059239</v>
       </c>
       <c r="AN50" s="2">
         <f t="shared" si="7"/>
-        <v>-13.717017797818016</v>
+        <v>-48.172735390313392</v>
       </c>
       <c r="AO50" s="2">
         <f t="shared" si="7"/>
-        <v>-24.714285047869907</v>
+        <v>-86.79399061224558</v>
       </c>
       <c r="AP50" s="2">
         <f t="shared" si="7"/>
-        <v>9.1374044521828637</v>
+        <v>32.08961111789904</v>
       </c>
     </row>
     <row r="51" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" ref="D51:L51" si="8">D43-$M$43</f>
-        <v>-61.728131587547068</v>
+        <v>-126.3326323414226</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="8"/>
-        <v>-30.600744806210059</v>
+        <v>-62.627404127626733</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="8"/>
-        <v>-58.613235665456045</v>
+        <v>-119.95769451021351</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="8"/>
-        <v>-24.137108387275021</v>
+        <v>-49.398942771335214</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="8"/>
-        <v>-54.110554368579983</v>
+        <v>-110.74251876781977</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="8"/>
-        <v>-31.552946021104958</v>
+        <v>-64.576176638678135</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="8"/>
-        <v>-49.685462757647997</v>
+        <v>-101.68613787334675</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="8"/>
-        <v>-54.41332367310099</v>
+        <v>-111.36216563301082</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="8"/>
-        <v>-28.692433188406994</v>
-      </c>
-      <c r="M51" s="6">
+        <v>-58.721858571580697</v>
+      </c>
+      <c r="M51" s="5">
         <f>M43-$M$43</f>
         <v>0</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" ref="N51:AP51" si="9">N43-$M$43</f>
-        <v>-14.882395916172868</v>
-      </c>
-      <c r="O51" s="6">
+        <v>-30.45827248101341</v>
+      </c>
+      <c r="O51" s="5">
         <f t="shared" si="9"/>
-        <v>-1.667648497510072</v>
-      </c>
-      <c r="P51" s="6">
+        <v>-3.413005044739748</v>
+      </c>
+      <c r="P51" s="5">
         <f t="shared" si="9"/>
-        <v>-0.78694766677404004</v>
+        <v>-1.6105650325330316</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="9"/>
-        <v>-53.759040070213018</v>
-      </c>
-      <c r="R51" s="6">
+        <v>-110.02311052596565</v>
+      </c>
+      <c r="R51" s="5">
         <f t="shared" si="9"/>
-        <v>-8.707935052538005</v>
+        <v>-17.821637058381384</v>
       </c>
       <c r="S51" s="2">
         <f t="shared" si="9"/>
-        <v>9.447824820423989</v>
+        <v>19.335893518370767</v>
       </c>
       <c r="T51" s="2">
         <f t="shared" si="9"/>
-        <v>-18.867792752937021</v>
+        <v>-38.614775202945111</v>
       </c>
       <c r="U51" s="2">
         <f t="shared" si="9"/>
-        <v>-18.914073394989032</v>
+        <v>-38.709493043685143</v>
       </c>
       <c r="V51" s="2">
         <f t="shared" si="9"/>
-        <v>-60.377887218390924</v>
+        <v>-123.56922575397812</v>
       </c>
       <c r="W51" s="2">
         <f t="shared" si="9"/>
-        <v>-9.7148341606759914</v>
+        <v>-19.882354134402021</v>
       </c>
       <c r="X51" s="2">
         <f t="shared" si="9"/>
-        <v>-48.317293938927946</v>
+        <v>-98.886047154397602</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="9"/>
-        <v>-30.584712698852059</v>
+        <v>-62.594592858721853</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="9"/>
-        <v>18.530705910936149</v>
+        <v>37.924894155480843</v>
       </c>
       <c r="AA51" s="2">
         <f t="shared" si="9"/>
-        <v>10.462368927609077</v>
+        <v>21.412256829406488</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="9"/>
-        <v>15.40012558261401</v>
+        <v>31.517856659581867</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="9"/>
-        <v>0.38430237061697881</v>
+        <v>0.78651222459643577</v>
       </c>
       <c r="AD51" s="2">
         <f t="shared" si="9"/>
-        <v>22.776460509291951</v>
+        <v>46.614244389988926</v>
       </c>
       <c r="AE51" s="2">
         <f t="shared" si="9"/>
-        <v>-12.097372737497039</v>
+        <v>-24.758451342008129</v>
       </c>
       <c r="AF51" s="2">
         <f t="shared" si="9"/>
-        <v>-16.983047095799066</v>
+        <v>-34.757459680238753</v>
       </c>
       <c r="AG51" s="2">
         <f t="shared" si="9"/>
-        <v>-15.572496546737966</v>
+        <v>-31.870630623040142</v>
       </c>
       <c r="AH51" s="2">
         <f t="shared" si="9"/>
-        <v>8.2751405081950224</v>
+        <v>16.935880878116905</v>
       </c>
       <c r="AI51" s="2">
         <f t="shared" si="9"/>
-        <v>-11.473161128338006</v>
+        <v>-23.480941498521361</v>
       </c>
       <c r="AJ51" s="2">
         <f t="shared" si="9"/>
-        <v>-26.075698105219089</v>
+        <v>-53.366455407782723</v>
       </c>
       <c r="AK51" s="2">
         <f t="shared" si="9"/>
-        <v>2.3820017102740394</v>
+        <v>4.8749984579380907</v>
       </c>
       <c r="AL51" s="2">
         <f t="shared" si="9"/>
-        <v>-7.9941184489910029</v>
+        <v>-16.360741868200421</v>
       </c>
       <c r="AM51" s="2">
         <f t="shared" si="9"/>
-        <v>-7.0367276010059641</v>
+        <v>-14.401348267666663</v>
       </c>
       <c r="AN51" s="2">
         <f t="shared" si="9"/>
-        <v>5.9047823950430711</v>
+        <v>12.084712175535287</v>
       </c>
       <c r="AO51" s="2">
         <f t="shared" si="9"/>
-        <v>-1.4037174031200266</v>
+        <v>-2.8728443586228423</v>
       </c>
       <c r="AP51" s="2">
         <f t="shared" si="9"/>
-        <v>49.378939045722973</v>
+        <v>101.0588072478015</v>
       </c>
     </row>
     <row r="54" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="M54" s="6">
+      <c r="M54" s="5">
         <f>M46</f>
         <v>28.955923787160145</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="5">
         <f>O46</f>
         <v>23.755622382202773</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="5">
         <f>P46</f>
         <v>26.920373637537296</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="5">
         <f>R46</f>
         <v>47.216219374967523</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="5">
         <f>T46</f>
         <v>-15.854270236980028</v>
       </c>
-      <c r="X54" s="6">
+      <c r="X54" s="5">
         <f>X46</f>
         <v>-53.22034296686661</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="Z54" s="5">
         <f>Z46</f>
         <v>-46.275090124768212</v>
       </c>
-      <c r="AF54" s="6">
+      <c r="AF54" s="5">
         <f>AF46</f>
         <v>-32.135885930981203</v>
       </c>
-      <c r="AM54" s="6">
+      <c r="AM54" s="5">
         <f>AM46</f>
         <v>-11.056970015459001</v>
       </c>
-      <c r="AN54" s="6">
+      <c r="AN54" s="5">
         <f>AN46</f>
         <v>21.143688384385086</v>
       </c>
     </row>
     <row r="63" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>28.955923787160145</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>23.755622382202773</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>26.920373637537296</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <v>47.216219374967523</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>-15.854270236980028</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>-53.22034296686661</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>-46.275090124768212</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <v>-32.135885930981203</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>-11.056970015459001</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="5">
         <v>21.143688384385086</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>-53.22034296686661</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>-46.275090124768212</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>-32.135885930981203</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>-15.854270236980028</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>-11.056970015459001</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>21.143688384385086</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>23.755622382202773</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>26.920373637537296</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>28.955923787160145</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>47.216219374967523</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C65:D75">
-    <sortState ref="C66:D75">
+  <autoFilter ref="C65:D75" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C66:D75">
       <sortCondition ref="D65:D75"/>
     </sortState>
   </autoFilter>
